--- a/exportacion.xlsx
+++ b/exportacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>Código</t>
   </si>
@@ -32,33 +32,36 @@
     <t>Sexo</t>
   </si>
   <si>
+    <t>Plano</t>
+  </si>
+  <si>
+    <t>Extremidad</t>
+  </si>
+  <si>
+    <t>Tipo Prestación</t>
+  </si>
+  <si>
+    <t>Fecha de Solicitud</t>
+  </si>
+  <si>
+    <t>Fecha Egreso</t>
+  </si>
+  <si>
+    <t>Motivo Egreso</t>
+  </si>
+  <si>
+    <t>Diagnóstico</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
     <t>Teléfono</t>
   </si>
   <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Folio</t>
-  </si>
-  <si>
-    <t>Fecha de Solicitud</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Examen</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Especialidad</t>
-  </si>
-  <si>
-    <t>Profesional</t>
-  </si>
-  <si>
     <t>10208072-6</t>
   </si>
   <si>
@@ -68,24 +71,18 @@
     <t>3/11/1965</t>
   </si>
   <si>
+    <t>Resonancia magnetica</t>
+  </si>
+  <si>
     <t>2024-01-19</t>
   </si>
   <si>
-    <t>Ingresado</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de Pelvis Incluye: osteoarticular de sacroiliacas u osteoarticular de sacrocoxis u osteoarticular de huesos pélvicos u órganos pelvianos (incluye genitales internos y gastrointestinal)</t>
+    <t>VICTOR BRAUN 207 VILLA FUTURO</t>
   </si>
   <si>
     <t>2024-05-07 15:40:00</t>
   </si>
   <si>
-    <t>Sin Especialidad</t>
-  </si>
-  <si>
-    <t>nombre y apellido no especificado</t>
-  </si>
-  <si>
     <t>10275140-K</t>
   </si>
   <si>
@@ -95,10 +92,13 @@
     <t>6/13/1965</t>
   </si>
   <si>
+    <t>Scanner</t>
+  </si>
+  <si>
     <t>2024-01-22</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomografía Computarizada de Columna Dorsal Incluye mínimo 6 espacios </t>
+    <t>sin registro</t>
   </si>
   <si>
     <t>2024-05-07 19:00:00</t>
@@ -113,9 +113,6 @@
     <t>5/3/1966</t>
   </si>
   <si>
-    <t>Tomografía Computarizada de cráneo encefálica</t>
-  </si>
-  <si>
     <t>2024-05-07 09:00:00</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>2024-01-17</t>
   </si>
   <si>
-    <t>Tomografía Computarizada de Pelvis (Además incluye Sacro Coxis Caderas Huesos Pélvicos Articulaciones Sacro Ilíacas) Bilateral</t>
-  </si>
-  <si>
     <t>2024-05-07 00:00:00</t>
   </si>
   <si>
@@ -146,12 +140,6 @@
     <t>2024-01-03</t>
   </si>
   <si>
-    <t>Resonancia Magnética Cráneo Encefálica u Oídos bilateral</t>
-  </si>
-  <si>
-    <t>Resonancia Magnética de columna dorsal</t>
-  </si>
-  <si>
     <t>2024-05-07 10:00:00</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
     <t>HERMINIA FUENTES VELASQUEZ</t>
   </si>
   <si>
-    <t>Resonancia Magnética de columna lumbar</t>
-  </si>
-  <si>
     <t>2024-05-07 11:00:00</t>
   </si>
   <si>
@@ -197,6 +182,9 @@
     <t>9/23/1970</t>
   </si>
   <si>
+    <t>RAPANUI 324 VI LOS TOROS</t>
+  </si>
+  <si>
     <t>2024-05-07 18:00:00</t>
   </si>
   <si>
@@ -209,9 +197,6 @@
     <t>2024-01-24</t>
   </si>
   <si>
-    <t>Colangioresonancia</t>
-  </si>
-  <si>
     <t>2024-05-07 15:00:00</t>
   </si>
   <si>
@@ -224,7 +209,10 @@
     <t>5/26/1972</t>
   </si>
   <si>
-    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
+    <t>Ecografía</t>
+  </si>
+  <si>
+    <t>Manuel Rodriguez 807</t>
   </si>
   <si>
     <t>2024-05-07 08:00:00</t>
@@ -254,6 +242,9 @@
     <t>2024-01-08</t>
   </si>
   <si>
+    <t>PJE RAUL SILVA HENRIQUEZ 334 BERNARDO LEIGTHON</t>
+  </si>
+  <si>
     <t>13340515-1</t>
   </si>
   <si>
@@ -263,7 +254,7 @@
     <t>7/1/1978</t>
   </si>
   <si>
-    <t>Tomografía Computarizada de abdomen (hígado vías y vesícula biliar páncreas bazo suprarrenales y riñones)</t>
+    <t>CHOROMBO BAJO -</t>
   </si>
   <si>
     <t>2024-05-07 05:00:00</t>
@@ -278,7 +269,7 @@
     <t>5/16/1980</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomografía Computarizada de Columna Lumbar </t>
+    <t>GABRIELA MISTRAL 1620 V. LOS POETAS</t>
   </si>
   <si>
     <t>2024-05-07 06:00:00</t>
@@ -296,7 +287,7 @@
     <t>2024-01-04</t>
   </si>
   <si>
-    <t>Tomografía Computarizada de Tórax Incluye además: Esternón Clavículas Articulación Acromioclavicular Escápula Costillas Articulación Esternoclavicular Incluye todo el Tórax o cada segmento o articulación Incluye bilateralidad</t>
+    <t>PSJ TURQUESA 91, SANTA RODA DE ESMERALDA</t>
   </si>
   <si>
     <t>2024-05-07 01:00:00</t>
@@ -314,7 +305,7 @@
     <t>2024-01-09</t>
   </si>
   <si>
-    <t>Tomografía Computarizada de Angio Cardíaco Mínimo 64 cortes</t>
+    <t>SANTA TERESA MALLARAUCO</t>
   </si>
   <si>
     <t>15867617-6</t>
@@ -326,15 +317,15 @@
     <t>8/11/1985</t>
   </si>
   <si>
+    <t>los maitenes 122. la foresta</t>
+  </si>
+  <si>
     <t>16101058-8</t>
   </si>
   <si>
     <t>FRANCISCA CACERES ALVAREZ</t>
   </si>
   <si>
-    <t>Tomografía Computarizada Musculoesquelética por zona anatómica Por cada segmento o articulación: muslo pierna rodillas antebrazo codo muñeca mano hombro pie tobillo u otros Bilateral sólo para rodillas</t>
-  </si>
-  <si>
     <t>2024-05-07 14:00:00</t>
   </si>
   <si>
@@ -347,6 +338,9 @@
     <t>5/6/1990</t>
   </si>
   <si>
+    <t>PASAJE CABURGA 378 LOS LAGOS II,MELIPILLA - XIII REGI&amp;Oacute</t>
+  </si>
+  <si>
     <t>17683919-8</t>
   </si>
   <si>
@@ -359,6 +353,9 @@
     <t>2024-01-16</t>
   </si>
   <si>
+    <t>PJE LUMANCO SITIO 3 CULIPRAN CODIGUA S/N</t>
+  </si>
+  <si>
     <t>2024-05-07 12:00:00</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
     <t>6/21/1993</t>
   </si>
   <si>
+    <t>IRARRAZABAL 490 POMAIRE</t>
+  </si>
+  <si>
     <t>2024-05-07 03:00:00</t>
   </si>
   <si>
@@ -383,6 +383,9 @@
     <t>1/3/2001</t>
   </si>
   <si>
+    <t>KATTY QUIROGA 773 - CHACRA MARIN</t>
+  </si>
+  <si>
     <t>20604327-K</t>
   </si>
   <si>
@@ -407,6 +410,9 @@
     <t>10/18/2002</t>
   </si>
   <si>
+    <t>Pje.: Jose Arias # 506 . Pobl: Padre Demetrio. Melipilla</t>
+  </si>
+  <si>
     <t>2024-05-07 13:00:00</t>
   </si>
   <si>
@@ -431,6 +437,9 @@
     <t>3/9/1950</t>
   </si>
   <si>
+    <t>Calle Villavicencio S/n - Unidad vecinal , Maria Pinto- Chile</t>
+  </si>
+  <si>
     <t>3984730-2</t>
   </si>
   <si>
@@ -440,6 +449,9 @@
     <t>4/3/1939</t>
   </si>
   <si>
+    <t>SALAR DEL HUASCO NORTE 18543</t>
+  </si>
+  <si>
     <t>4305138-5</t>
   </si>
   <si>
@@ -452,6 +464,9 @@
     <t>2024-01-15</t>
   </si>
   <si>
+    <t>OHIGGINS 978</t>
+  </si>
+  <si>
     <t>2024-05-07 02:00:00</t>
   </si>
   <si>
@@ -476,6 +491,9 @@
     <t>2024-01-18</t>
   </si>
   <si>
+    <t>Otro El Bosque Sitio1</t>
+  </si>
+  <si>
     <t>5484635-5</t>
   </si>
   <si>
@@ -485,6 +503,9 @@
     <t>7/15/1945</t>
   </si>
   <si>
+    <t>manuel aguero 1498 pob. juan fco.</t>
+  </si>
+  <si>
     <t>966272181-94886594</t>
   </si>
   <si>
@@ -509,6 +530,9 @@
     <t>10/9/1948</t>
   </si>
   <si>
+    <t>CAUPOLICAN 903 - TTE. MERINO- UNIDAD VECINAL , MELIPILLA- CHILE</t>
+  </si>
+  <si>
     <t>7190208-0</t>
   </si>
   <si>
@@ -518,7 +542,7 @@
     <t>8/28/1954</t>
   </si>
   <si>
-    <t>Tomografía Computarizada angio de tórax</t>
+    <t>EL ASIENTO ALHUE</t>
   </si>
   <si>
     <t>7480941-3</t>
@@ -530,6 +554,9 @@
     <t>2/11/1956</t>
   </si>
   <si>
+    <t>JOSE ARGOMEDO 460 POBLACION PADRE DEMETRIO</t>
+  </si>
+  <si>
     <t>7510297-6</t>
   </si>
   <si>
@@ -539,6 +566,9 @@
     <t>10/1/1958</t>
   </si>
   <si>
+    <t>PARCELA 1 - PABELLON- UNIDAD VECINAL , MELIPILLA- CHILE</t>
+  </si>
+  <si>
     <t>2024-05-07 22:00:00</t>
   </si>
   <si>
@@ -560,6 +590,9 @@
     <t>4/13/1956</t>
   </si>
   <si>
+    <t>HERMANAS MARAMBIO DEMETRIO BRAVO DP.203 BLOCK</t>
+  </si>
+  <si>
     <t>2024-05-07 20:00:00</t>
   </si>
   <si>
@@ -572,12 +605,15 @@
     <t>11/10/1956</t>
   </si>
   <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>PABLO NERUDA 0402 H</t>
+  </si>
+  <si>
     <t>996619542-9989676577</t>
   </si>
   <si>
-    <t>2024-01-29</t>
-  </si>
-  <si>
     <t>7884923-1</t>
   </si>
   <si>
@@ -587,6 +623,9 @@
     <t>10/25/1958</t>
   </si>
   <si>
+    <t>LOS RULOS S/N</t>
+  </si>
+  <si>
     <t>7890716-9</t>
   </si>
   <si>
@@ -596,6 +635,9 @@
     <t>1/5/1960</t>
   </si>
   <si>
+    <t>SANTIGO DE AZOCAR 428 CAMPO LINDO</t>
+  </si>
+  <si>
     <t>8084012-8</t>
   </si>
   <si>
@@ -605,6 +647,9 @@
     <t>10/26/1957</t>
   </si>
   <si>
+    <t>PJE AUSTRIA 142 VILLA RINCONADA ORIENTE 0</t>
+  </si>
+  <si>
     <t>8651641-1</t>
   </si>
   <si>
@@ -614,6 +659,9 @@
     <t>12/30/1958</t>
   </si>
   <si>
+    <t>QUILAMUTA S/N</t>
+  </si>
+  <si>
     <t>8878692-0</t>
   </si>
   <si>
@@ -621,9 +669,6 @@
   </si>
   <si>
     <t>9/28/1959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomografía Computarizada de cuello partes blandas </t>
   </si>
   <si>
     <t>9869652-0</t>
@@ -981,7 +1026,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,7 +1034,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,96 +1077,85 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>405011</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2">
         <v>9961262971</v>
       </c>
-      <c r="G2">
-        <v>59</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>403018</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>94092665</v>
-      </c>
-      <c r="G3">
-        <v>58</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3">
+        <v>94092665</v>
+      </c>
+      <c r="O3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>403001</v>
       </c>
@@ -1137,913 +1171,745 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4">
         <v>933291248</v>
       </c>
-      <c r="G4">
-        <v>58</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>403016</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5"/>
-      <c r="G5">
-        <v>57</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>25</v>
       </c>
       <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>405001</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>16</v>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>40</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>405006</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>16</v>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>40</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>405007</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8">
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8">
         <v>949868274</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>403001</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
-      <c r="F9">
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9">
         <v>989241364</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>28</v>
       </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>403016</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>50</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>403016</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11"/>
-      <c r="G11">
-        <v>53</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
       <c r="M11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>55</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>405098</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12">
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12">
         <v>950172041</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>404016</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s">
         <v>66</v>
       </c>
-      <c r="G13">
-        <v>51</v>
-      </c>
-      <c r="H13">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>403001</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14">
         <v>999512476</v>
       </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>405007</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15"/>
-      <c r="G15">
-        <v>50</v>
-      </c>
-      <c r="H15">
-        <v>16</v>
+      <c r="G15"/>
+      <c r="H15" t="s">
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
       <c r="M15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>75</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>403014</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16">
         <v>985987526</v>
       </c>
-      <c r="G16">
-        <v>45</v>
-      </c>
-      <c r="H16">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>403019</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17">
         <v>992368762</v>
       </c>
-      <c r="G17">
-        <v>43</v>
-      </c>
-      <c r="H17">
-        <v>16</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>403013</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18">
         <v>983336652</v>
       </c>
-      <c r="G18">
-        <v>46</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>403106</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19">
         <v>959364501</v>
       </c>
-      <c r="G19">
-        <v>40</v>
-      </c>
-      <c r="H19">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>403014</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20">
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20">
         <v>988488640</v>
       </c>
-      <c r="G20">
-        <v>38</v>
-      </c>
-      <c r="H20">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" t="s">
-        <v>88</v>
-      </c>
-      <c r="M20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>403017</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21">
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21">
         <v>989549449</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>16</v>
-      </c>
-      <c r="I21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" t="s">
-        <v>106</v>
-      </c>
-      <c r="M21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>403016</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" t="s">
+        <v>107</v>
+      </c>
+      <c r="N22">
         <v>948663608</v>
       </c>
-      <c r="G22">
-        <v>34</v>
-      </c>
-      <c r="H22">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>403016</v>
       </c>
       <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" t="s">
-        <v>112</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23"/>
-      <c r="G23">
-        <v>33</v>
-      </c>
-      <c r="H23">
-        <v>16</v>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" t="s">
-        <v>88</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
       <c r="M23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>112</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>403013</v>
       </c>
       <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24"/>
-      <c r="G24">
-        <v>33</v>
-      </c>
-      <c r="H24">
-        <v>16</v>
+      <c r="G24"/>
+      <c r="H24" t="s">
+        <v>25</v>
       </c>
       <c r="I24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24" t="s">
+        <v>112</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24" t="s">
         <v>113</v>
       </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>405007</v>
       </c>
       <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
         <v>115</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>116</v>
-      </c>
-      <c r="D25" t="s">
-        <v>117</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25"/>
-      <c r="G25">
-        <v>30</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
+      <c r="G25"/>
+      <c r="H25" t="s">
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25" t="s">
         <v>118</v>
       </c>
-      <c r="M25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>403016</v>
       </c>
@@ -2060,32 +1926,25 @@
         <v>1</v>
       </c>
       <c r="F26"/>
-      <c r="G26">
-        <v>23</v>
-      </c>
-      <c r="H26">
-        <v>16</v>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" t="s">
-        <v>106</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
       <c r="M26" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>122</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>403013</v>
       </c>
@@ -2102,1321 +1961,1102 @@
         <v>1</v>
       </c>
       <c r="F27"/>
-      <c r="G27">
-        <v>23</v>
-      </c>
-      <c r="H27">
-        <v>16</v>
+      <c r="G27"/>
+      <c r="H27" t="s">
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" t="s">
-        <v>56</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
       <c r="M27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>122</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>403014</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28">
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28">
         <v>990178143</v>
       </c>
-      <c r="G28">
-        <v>23</v>
-      </c>
-      <c r="H28">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" t="s">
-        <v>126</v>
-      </c>
-      <c r="M28" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>403001</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29">
         <v>933306155</v>
       </c>
-      <c r="G29">
-        <v>21</v>
-      </c>
-      <c r="H29">
-        <v>16</v>
-      </c>
-      <c r="I29" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" t="s">
-        <v>130</v>
-      </c>
-      <c r="M29" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>403014</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
-      <c r="F30">
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30">
         <v>936199260</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>16</v>
-      </c>
-      <c r="I30" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" t="s">
-        <v>134</v>
-      </c>
-      <c r="M30" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>403001</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31"/>
-      <c r="G31">
-        <v>74</v>
-      </c>
-      <c r="H31">
-        <v>16</v>
+      <c r="G31"/>
+      <c r="H31" t="s">
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31" t="s">
+        <v>140</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31" t="s">
         <v>28</v>
       </c>
-      <c r="M31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>403001</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32">
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N32">
         <v>96215997</v>
       </c>
-      <c r="G32">
-        <v>85</v>
-      </c>
-      <c r="H32">
-        <v>16</v>
-      </c>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="O32" t="s">
         <v>32</v>
       </c>
-      <c r="L32" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>403001</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33">
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33" t="s">
+        <v>149</v>
+      </c>
+      <c r="N33">
         <v>954675521</v>
       </c>
-      <c r="G33">
-        <v>82</v>
-      </c>
-      <c r="H33">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" t="s">
-        <v>145</v>
-      </c>
-      <c r="M33" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>405011</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34">
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34">
         <v>930272052</v>
       </c>
-      <c r="G34">
-        <v>83</v>
-      </c>
-      <c r="H34">
-        <v>16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" t="s">
-        <v>33</v>
-      </c>
-      <c r="M34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>403001</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35"/>
-      <c r="G35">
-        <v>83</v>
-      </c>
-      <c r="H35">
-        <v>16</v>
+      <c r="G35"/>
+      <c r="H35" t="s">
+        <v>25</v>
       </c>
       <c r="I35" t="s">
-        <v>152</v>
-      </c>
-      <c r="J35" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" t="s">
-        <v>130</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
       <c r="M35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>158</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>403001</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36"/>
-      <c r="G36">
-        <v>83</v>
-      </c>
-      <c r="H36">
-        <v>16</v>
+      <c r="G36"/>
+      <c r="H36" t="s">
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>152</v>
-      </c>
-      <c r="J36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" t="s">
-        <v>106</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
       <c r="M36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>158</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>403001</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37">
-        <v>78</v>
-      </c>
-      <c r="H37">
-        <v>16</v>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37" t="s">
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>125</v>
-      </c>
-      <c r="J37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" t="s">
-        <v>157</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="N37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>163</v>
+      </c>
+      <c r="O37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>403001</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38">
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38">
         <v>954794954</v>
       </c>
-      <c r="G38">
-        <v>75</v>
-      </c>
-      <c r="H38">
-        <v>16</v>
-      </c>
-      <c r="I38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="O38" t="s">
         <v>32</v>
       </c>
-      <c r="L38" t="s">
-        <v>33</v>
-      </c>
-      <c r="M38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>403001</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39"/>
-      <c r="G39">
-        <v>75</v>
-      </c>
-      <c r="H39">
-        <v>16</v>
+      <c r="G39"/>
+      <c r="H39" t="s">
+        <v>25</v>
       </c>
       <c r="I39" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39" t="s">
+        <v>171</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39" t="s">
         <v>28</v>
       </c>
-      <c r="M39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>403102</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40">
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40" t="s">
+        <v>175</v>
+      </c>
+      <c r="N40">
         <v>946546670</v>
       </c>
-      <c r="G40">
-        <v>69</v>
-      </c>
-      <c r="H40">
-        <v>16</v>
-      </c>
-      <c r="I40" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" t="s">
-        <v>167</v>
-      </c>
-      <c r="L40" t="s">
-        <v>114</v>
-      </c>
-      <c r="M40" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>403001</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41">
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41" t="s">
+        <v>179</v>
+      </c>
+      <c r="N41">
         <v>942462193</v>
       </c>
-      <c r="G41">
-        <v>68</v>
-      </c>
-      <c r="H41">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s">
-        <v>113</v>
-      </c>
-      <c r="J41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" t="s">
-        <v>130</v>
-      </c>
-      <c r="M41" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>403001</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42">
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42" t="s">
+        <v>183</v>
+      </c>
+      <c r="N42">
         <v>979219165</v>
       </c>
-      <c r="G42">
-        <v>65</v>
-      </c>
-      <c r="H42">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s">
-        <v>63</v>
-      </c>
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" t="s">
-        <v>174</v>
-      </c>
-      <c r="M42" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>405001</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43">
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>148</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43">
         <v>996933578</v>
       </c>
-      <c r="G43">
-        <v>68</v>
-      </c>
-      <c r="H43">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s">
-        <v>144</v>
-      </c>
-      <c r="J43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" t="s">
-        <v>43</v>
-      </c>
-      <c r="L43" t="s">
-        <v>88</v>
-      </c>
-      <c r="M43" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>403016</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44"/>
-      <c r="G44">
-        <v>68</v>
-      </c>
-      <c r="H44">
-        <v>16</v>
+      <c r="G44"/>
+      <c r="H44" t="s">
+        <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>98</v>
-      </c>
-      <c r="J44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" t="s">
-        <v>38</v>
-      </c>
-      <c r="L44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44" t="s">
+        <v>191</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44" t="s">
         <v>28</v>
       </c>
-      <c r="M44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>403013</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45"/>
-      <c r="G45">
-        <v>68</v>
-      </c>
-      <c r="H45">
-        <v>16</v>
+      <c r="G45"/>
+      <c r="H45" t="s">
+        <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>144</v>
-      </c>
-      <c r="J45" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" t="s">
-        <v>93</v>
-      </c>
-      <c r="L45" t="s">
-        <v>181</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
       <c r="M45" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>191</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>403013</v>
       </c>
       <c r="B46" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46"/>
-      <c r="G46">
-        <v>68</v>
-      </c>
-      <c r="H46">
-        <v>16</v>
+      <c r="G46"/>
+      <c r="H46" t="s">
+        <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>98</v>
-      </c>
-      <c r="J46" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" t="s">
-        <v>93</v>
-      </c>
-      <c r="L46" t="s">
-        <v>126</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
       <c r="M46" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>191</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>405011</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
-        <v>185</v>
-      </c>
-      <c r="G47">
-        <v>67</v>
-      </c>
-      <c r="H47">
-        <v>16</v>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47" t="s">
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>186</v>
-      </c>
-      <c r="J47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47" t="s">
-        <v>39</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
       <c r="M47" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="N47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>198</v>
+      </c>
+      <c r="O47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>405001</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48">
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48" t="s">
+        <v>202</v>
+      </c>
+      <c r="N48">
         <v>997301937</v>
       </c>
-      <c r="G48">
-        <v>65</v>
-      </c>
-      <c r="H48">
-        <v>16</v>
-      </c>
-      <c r="I48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" t="s">
-        <v>43</v>
-      </c>
-      <c r="L48" t="s">
-        <v>114</v>
-      </c>
-      <c r="M48" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>403017</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49">
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s">
+        <v>135</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49" t="s">
+        <v>206</v>
+      </c>
+      <c r="N49">
         <v>443007583</v>
       </c>
-      <c r="G49">
-        <v>64</v>
-      </c>
-      <c r="H49">
-        <v>16</v>
-      </c>
-      <c r="I49" t="s">
-        <v>133</v>
-      </c>
-      <c r="J49" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" t="s">
-        <v>105</v>
-      </c>
-      <c r="L49" t="s">
-        <v>65</v>
-      </c>
-      <c r="M49" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>405007</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50"/>
-      <c r="G50">
-        <v>66</v>
-      </c>
-      <c r="H50">
-        <v>16</v>
+      <c r="G50"/>
+      <c r="H50" t="s">
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
-      </c>
-      <c r="J50" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" t="s">
-        <v>48</v>
-      </c>
-      <c r="L50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50" t="s">
+        <v>210</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50" t="s">
         <v>28</v>
       </c>
-      <c r="M50" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>403016</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51"/>
-      <c r="G51">
-        <v>65</v>
-      </c>
-      <c r="H51">
-        <v>16</v>
+      <c r="G51"/>
+      <c r="H51" t="s">
+        <v>25</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" t="s">
-        <v>38</v>
-      </c>
-      <c r="L51" t="s">
-        <v>114</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
       <c r="M51" t="s">
-        <v>21</v>
-      </c>
-      <c r="N51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>214</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>403012</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
-      <c r="F52">
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52">
         <v>997447663</v>
       </c>
-      <c r="G52">
-        <v>64</v>
-      </c>
-      <c r="H52">
-        <v>16</v>
-      </c>
-      <c r="I52" t="s">
-        <v>113</v>
-      </c>
-      <c r="J52" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" t="s">
-        <v>202</v>
-      </c>
-      <c r="L52" t="s">
-        <v>181</v>
-      </c>
-      <c r="M52" t="s">
-        <v>21</v>
-      </c>
-      <c r="N52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>403016</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D53" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
-      <c r="F53">
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s">
+        <v>111</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53">
         <v>997447663</v>
       </c>
-      <c r="G53">
-        <v>64</v>
-      </c>
-      <c r="H53">
-        <v>16</v>
-      </c>
-      <c r="I53" t="s">
-        <v>113</v>
-      </c>
-      <c r="J53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L53" t="s">
-        <v>126</v>
-      </c>
-      <c r="M53" t="s">
-        <v>21</v>
-      </c>
-      <c r="N53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>403013</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
-      <c r="F54">
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>111</v>
+      </c>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54">
         <v>997447663</v>
       </c>
-      <c r="G54">
-        <v>64</v>
-      </c>
-      <c r="H54">
-        <v>16</v>
-      </c>
-      <c r="I54" t="s">
-        <v>113</v>
-      </c>
-      <c r="J54" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" t="s">
-        <v>93</v>
-      </c>
-      <c r="L54" t="s">
-        <v>174</v>
-      </c>
-      <c r="M54" t="s">
-        <v>21</v>
-      </c>
-      <c r="N54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>403014</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55"/>
-      <c r="G55">
-        <v>59</v>
-      </c>
-      <c r="H55">
-        <v>16</v>
+      <c r="G55"/>
+      <c r="H55" t="s">
+        <v>25</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
-      </c>
-      <c r="J55" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" t="s">
-        <v>82</v>
-      </c>
-      <c r="L55" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55" t="s">
         <v>28</v>
       </c>
-      <c r="M55" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>403013</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56"/>
-      <c r="G56">
-        <v>59</v>
-      </c>
-      <c r="H56">
-        <v>16</v>
+      <c r="G56"/>
+      <c r="H56" t="s">
+        <v>25</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" t="s">
-        <v>93</v>
-      </c>
-      <c r="L56" t="s">
-        <v>181</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
       <c r="M56" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>27</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>405011</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D57" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57"/>
-      <c r="G57">
-        <v>49</v>
-      </c>
-      <c r="H57">
-        <v>16</v>
+      <c r="G57"/>
+      <c r="H57" t="s">
+        <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
-      </c>
-      <c r="J57" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" t="s">
-        <v>19</v>
-      </c>
-      <c r="L57" t="s">
-        <v>39</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
       <c r="M57" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/exportacion.xlsx
+++ b/exportacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>Código</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Fecha de Solicitud</t>
   </si>
   <si>
-    <t>Fecha Egreso</t>
-  </si>
-  <si>
-    <t>Motivo Egreso</t>
-  </si>
-  <si>
     <t>Diagnóstico</t>
   </si>
   <si>
@@ -80,7 +74,7 @@
     <t>VICTOR BRAUN 207 VILLA FUTURO</t>
   </si>
   <si>
-    <t>2024-05-07 15:40:00</t>
+    <t>2024-05-08 15:40:00</t>
   </si>
   <si>
     <t>10275140-K</t>
@@ -101,7 +95,7 @@
     <t>sin registro</t>
   </si>
   <si>
-    <t>2024-05-07 19:00:00</t>
+    <t>2024-05-08 19:00:00</t>
   </si>
   <si>
     <t>10904737-6</t>
@@ -113,7 +107,7 @@
     <t>5/3/1966</t>
   </si>
   <si>
-    <t>2024-05-07 09:00:00</t>
+    <t>2024-05-08 09:00:00</t>
   </si>
   <si>
     <t>11048229-9</t>
@@ -128,7 +122,7 @@
     <t>2024-01-17</t>
   </si>
   <si>
-    <t>2024-05-07 00:00:00</t>
+    <t>2024-05-08 00:00:00</t>
   </si>
   <si>
     <t>11061100-5</t>
@@ -140,7 +134,7 @@
     <t>2024-01-03</t>
   </si>
   <si>
-    <t>2024-05-07 10:00:00</t>
+    <t>2024-05-08 10:00:00</t>
   </si>
   <si>
     <t>11183877-1</t>
@@ -149,7 +143,7 @@
     <t>HERMINIA FUENTES VELASQUEZ</t>
   </si>
   <si>
-    <t>2024-05-07 11:00:00</t>
+    <t>2024-05-08 11:00:00</t>
   </si>
   <si>
     <t>11224678-9</t>
@@ -164,424 +158,499 @@
     <t>11608528-3</t>
   </si>
   <si>
+    <t>YESICA SILVA GONZALEZ</t>
+  </si>
+  <si>
+    <t>7/14/1970</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>CULEBRAS VERDES, LOTE 1, PARC 19, BOLLENAR</t>
+  </si>
+  <si>
+    <t>988001982-74646550</t>
+  </si>
+  <si>
+    <t>2024-05-08 15:00:00</t>
+  </si>
+  <si>
+    <t>11608643-3</t>
+  </si>
+  <si>
     <t>ZOILA ACEVEDO PIZARRO</t>
   </si>
   <si>
-    <t>2024-01-05</t>
-  </si>
-  <si>
-    <t>2024-05-07 16:00:00</t>
-  </si>
-  <si>
-    <t>11608643-3</t>
-  </si>
-  <si>
-    <t>JUAN ATABALES GUAJARDO</t>
-  </si>
-  <si>
-    <t>9/23/1970</t>
-  </si>
-  <si>
-    <t>RAPANUI 324 VI LOS TOROS</t>
-  </si>
-  <si>
-    <t>2024-05-07 18:00:00</t>
+    <t>2024-05-08 17:00:00</t>
   </si>
   <si>
     <t>12146831-K</t>
   </si>
   <si>
-    <t>JACQUELINE BLANCO GALLEGUILLOS</t>
+    <t>MERCEDES FUENTES MENARES</t>
+  </si>
+  <si>
+    <t>10/25/1955</t>
   </si>
   <si>
     <t>2024-01-24</t>
   </si>
   <si>
-    <t>2024-05-07 15:00:00</t>
+    <t>2024-05-08 14:00:00</t>
   </si>
   <si>
     <t>12178710-5</t>
   </si>
   <si>
-    <t>INES CASTRO VALDES</t>
-  </si>
-  <si>
-    <t>5/26/1972</t>
+    <t>RITA QUINTANILLA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2/28/1972</t>
   </si>
   <si>
     <t>Ecografía</t>
   </si>
   <si>
-    <t>Manuel Rodriguez 807</t>
-  </si>
-  <si>
-    <t>2024-05-07 08:00:00</t>
+    <t>2024-05-08 07:00:00</t>
   </si>
   <si>
     <t>12604375-9</t>
   </si>
   <si>
-    <t>SUSANA VILLAR PALOMERA</t>
-  </si>
-  <si>
-    <t>4/12/1974</t>
-  </si>
-  <si>
-    <t>2024-05-07 07:00:00</t>
+    <t>DAMARIS MARTINEZ ESCALONA</t>
+  </si>
+  <si>
+    <t>6/15/1974</t>
+  </si>
+  <si>
+    <t>PJE. BENJAMIN ULLOA VALENZUELA 288 V. MARTITA ROMANINI</t>
   </si>
   <si>
     <t>12662511-1</t>
   </si>
   <si>
-    <t>PAOLA VASQUEZ HERRERA</t>
-  </si>
-  <si>
-    <t>11/6/1973</t>
+    <t>ANGELICA FARIAS BENITES</t>
+  </si>
+  <si>
+    <t>6/9/1974</t>
   </si>
   <si>
     <t>2024-01-08</t>
   </si>
   <si>
-    <t>PJE RAUL SILVA HENRIQUEZ 334 BERNARDO LEIGTHON</t>
-  </si>
-  <si>
-    <t>13340515-1</t>
-  </si>
-  <si>
-    <t>VALERIA #VALUE! #VALUE!</t>
-  </si>
-  <si>
-    <t>7/1/1978</t>
-  </si>
-  <si>
-    <t>CHOROMBO BAJO -</t>
-  </si>
-  <si>
-    <t>2024-05-07 05:00:00</t>
-  </si>
-  <si>
-    <t>13772783-8</t>
-  </si>
-  <si>
-    <t>DAYANA ROJAS MUÑOZ</t>
-  </si>
-  <si>
-    <t>5/16/1980</t>
-  </si>
-  <si>
-    <t>GABRIELA MISTRAL 1620 V. LOS POETAS</t>
-  </si>
-  <si>
-    <t>2024-05-07 06:00:00</t>
-  </si>
-  <si>
-    <t>14312193-3</t>
-  </si>
-  <si>
-    <t>ALEJANDRA PRADO GALAZ</t>
-  </si>
-  <si>
-    <t>4/16/1978</t>
+    <t>Las Acasias # 2, Camino Cholqui</t>
+  </si>
+  <si>
+    <t>12799674-1</t>
+  </si>
+  <si>
+    <t>IRIS CERDA PEREIRA</t>
+  </si>
+  <si>
+    <t>2024-05-08 16:00:00</t>
+  </si>
+  <si>
+    <t>13246799-4</t>
+  </si>
+  <si>
+    <t>RAMON FONSECA DOEPKING</t>
+  </si>
+  <si>
+    <t>11/16/1977</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>CAUQUENES 6918</t>
+  </si>
+  <si>
+    <t>2024-05-08 06:00:00</t>
+  </si>
+  <si>
+    <t>13340128-8</t>
+  </si>
+  <si>
+    <t>BEATRIZ OLMEDO MEZA</t>
+  </si>
+  <si>
+    <t>9/2/1978</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>San Ramon Mallarauco S/n Melipilla</t>
+  </si>
+  <si>
+    <t>2024-05-08 18:00:00</t>
+  </si>
+  <si>
+    <t>13559356-7</t>
+  </si>
+  <si>
+    <t>ALEJANDRA CONTRERAS ITURRIETA</t>
+  </si>
+  <si>
+    <t>7/10/1979</t>
+  </si>
+  <si>
+    <t>PJE LAGO VERDE 425, LOS LAGOS 3</t>
+  </si>
+  <si>
+    <t>13679365-9</t>
+  </si>
+  <si>
+    <t>ALICIA ORTEGA GONZALEZ</t>
+  </si>
+  <si>
+    <t>5/9/1979</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>14312672-2</t>
+  </si>
+  <si>
+    <t>FREDDY MUÑOZ FARIAS</t>
+  </si>
+  <si>
+    <t>4/14/1976</t>
+  </si>
+  <si>
+    <t>HURTADO 158</t>
+  </si>
+  <si>
+    <t>15621960-6</t>
+  </si>
+  <si>
+    <t>JUAN BOBADILLA CARDENAS</t>
+  </si>
+  <si>
+    <t>12/29/1981</t>
+  </si>
+  <si>
+    <t>2024-01-10</t>
+  </si>
+  <si>
+    <t>VILLA SANTA RITA LOS CANELOS NÃ‚Â°317 LOS RULOS</t>
+  </si>
+  <si>
+    <t>2024-05-08 08:00:00</t>
+  </si>
+  <si>
+    <t>15433540-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRESIA AGUSTO ROMERO </t>
+  </si>
+  <si>
+    <t>5/9/1984</t>
+  </si>
+  <si>
+    <t>VALLE DEL ACONCAGUA 2235, VILLA SOL DEL VALLE</t>
+  </si>
+  <si>
+    <t>964432394-9349663676</t>
+  </si>
+  <si>
+    <t>2024-05-08 20:00:00</t>
+  </si>
+  <si>
+    <t>15966140-7</t>
+  </si>
+  <si>
+    <t>SANDRA GONZALEZ VARGAS</t>
+  </si>
+  <si>
+    <t>8/11/1985</t>
+  </si>
+  <si>
+    <t>los maitenes 122. la foresta</t>
+  </si>
+  <si>
+    <t>16198148-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUDIO MORALES ADASME </t>
+  </si>
+  <si>
+    <t>12/11/1985</t>
+  </si>
+  <si>
+    <t>952190901-963396629</t>
+  </si>
+  <si>
+    <t>2024-05-08 04:00:00</t>
+  </si>
+  <si>
+    <t>2024-01-09</t>
+  </si>
+  <si>
+    <t>17683919-8</t>
+  </si>
+  <si>
+    <t>SEBASTIAN SANTIS OLMEDO</t>
+  </si>
+  <si>
+    <t>6/18/1990</t>
+  </si>
+  <si>
+    <t>PARCELA 3 LA CARRERA MALLARAUCO</t>
+  </si>
+  <si>
+    <t>2024-05-08 03:00:00</t>
+  </si>
+  <si>
+    <t>18884333-6</t>
+  </si>
+  <si>
+    <t>SEBASTIAN GALDAMES CASTILLO</t>
+  </si>
+  <si>
+    <t>2024-05-08 02:00:00</t>
+  </si>
+  <si>
+    <t>20603910-8</t>
+  </si>
+  <si>
+    <t>ALEJANDRO HERMOSILLA ESPINOZA</t>
+  </si>
+  <si>
+    <t>7/10/2000</t>
+  </si>
+  <si>
+    <t>CALLE GUILLERMO BARROS 177 A POMAIRE ,MELIPILLA - XIII REGI&amp;Oacute</t>
+  </si>
+  <si>
+    <t>2024-05-08 13:00:00</t>
+  </si>
+  <si>
+    <t>20604172-2</t>
+  </si>
+  <si>
+    <t>MARTIN ORELLANA VASQUEZ</t>
+  </si>
+  <si>
+    <t>1/3/2001</t>
+  </si>
+  <si>
+    <t>KATTY QUIROGA 773 - CHACRA MARIN</t>
+  </si>
+  <si>
+    <t>3186939-0</t>
+  </si>
+  <si>
+    <t>MARGARITA BLANCO LEYTON</t>
+  </si>
+  <si>
+    <t>6/17/1931</t>
+  </si>
+  <si>
+    <t>CALLE VICHUQUEN 1863 POBL LOS LAGOS 1</t>
+  </si>
+  <si>
+    <t>973639577-</t>
+  </si>
+  <si>
+    <t>2024-05-08 21:00:00</t>
+  </si>
+  <si>
+    <t>3318349-6</t>
+  </si>
+  <si>
+    <t>ERNESTO MUÑOZ VELASQUEZ</t>
+  </si>
+  <si>
+    <t>9/25/1932</t>
+  </si>
+  <si>
+    <t>FUNDACION LAS ROSAS</t>
+  </si>
+  <si>
+    <t>3412995-9</t>
+  </si>
+  <si>
+    <t>JORGE CACERES CACERES</t>
+  </si>
+  <si>
+    <t>4/23/1935</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>4277756-0</t>
+  </si>
+  <si>
+    <t>MARTA SANCHEZ SAEZ</t>
+  </si>
+  <si>
+    <t>10/20/1940</t>
+  </si>
+  <si>
+    <t>4332742-9</t>
+  </si>
+  <si>
+    <t>JUAN GONZALEZ ZUÑIGA</t>
+  </si>
+  <si>
+    <t>10/25/1941</t>
+  </si>
+  <si>
+    <t>OHIGGINS 978</t>
+  </si>
+  <si>
+    <t>4363617-0</t>
+  </si>
+  <si>
+    <t>RICARDO RIOS ARAVENA</t>
+  </si>
+  <si>
+    <t>1/30/1941</t>
+  </si>
+  <si>
+    <t>PRAIS 229309</t>
+  </si>
+  <si>
+    <t>4628412-7</t>
+  </si>
+  <si>
+    <t>CLAUDINA QUIJANO QUIJANO</t>
+  </si>
+  <si>
+    <t>8/15/1941</t>
+  </si>
+  <si>
+    <t>2024-01-23</t>
+  </si>
+  <si>
+    <t>PUERTAS COLORADAS 18 PUANGUE</t>
+  </si>
+  <si>
+    <t>5014233-7</t>
+  </si>
+  <si>
+    <t>HORTENCIA FLORES JARA</t>
+  </si>
+  <si>
+    <t>12/28/1945</t>
+  </si>
+  <si>
+    <t>2024-01-25</t>
+  </si>
+  <si>
+    <t>LOICA CENTRO , SAN PEDRO</t>
+  </si>
+  <si>
+    <t>5367345-7</t>
+  </si>
+  <si>
+    <t>JUANA HERNANDEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>6/26/1944</t>
+  </si>
+  <si>
+    <t>2024-01-26</t>
+  </si>
+  <si>
+    <t>MANUEL AGUERO 1470 JUAN FCO GONZALEZ</t>
+  </si>
+  <si>
+    <t>6121625-1</t>
+  </si>
+  <si>
+    <t>MARIA GONZALEZ ALARCON</t>
+  </si>
+  <si>
+    <t>9/14/1945</t>
+  </si>
+  <si>
+    <t>PARCELA 36 CHOLQUI</t>
+  </si>
+  <si>
+    <t>6427003-6</t>
+  </si>
+  <si>
+    <t>FLORCITA ESPINOZA CATALAN</t>
+  </si>
+  <si>
+    <t>4/14/1951</t>
+  </si>
+  <si>
+    <t>2024-01-30</t>
+  </si>
+  <si>
+    <t>7194008-K</t>
+  </si>
+  <si>
+    <t>NELSON SILVA VERGARA</t>
+  </si>
+  <si>
+    <t>3/10/1956</t>
+  </si>
+  <si>
+    <t>P.LIZAMA 326 COLONIAL 2</t>
+  </si>
+  <si>
+    <t>7203768-5</t>
+  </si>
+  <si>
+    <t>OSCAR SILVA PEREZ</t>
+  </si>
+  <si>
+    <t>3/19/1955</t>
   </si>
   <si>
     <t>2024-01-04</t>
   </si>
   <si>
-    <t>PSJ TURQUESA 91, SANTA RODA DE ESMERALDA</t>
-  </si>
-  <si>
-    <t>2024-05-07 01:00:00</t>
-  </si>
-  <si>
-    <t>15623067-7</t>
-  </si>
-  <si>
-    <t>MARIBEL GAETE PLAZA</t>
-  </si>
-  <si>
-    <t>6/29/1983</t>
-  </si>
-  <si>
-    <t>2024-01-09</t>
-  </si>
-  <si>
-    <t>SANTA TERESA MALLARAUCO</t>
-  </si>
-  <si>
-    <t>15867617-6</t>
-  </si>
-  <si>
-    <t>SANDRA GONZALEZ VARGAS</t>
-  </si>
-  <si>
-    <t>8/11/1985</t>
-  </si>
-  <si>
-    <t>los maitenes 122. la foresta</t>
-  </si>
-  <si>
-    <t>16101058-8</t>
-  </si>
-  <si>
-    <t>FRANCISCA CACERES ALVAREZ</t>
-  </si>
-  <si>
-    <t>2024-05-07 14:00:00</t>
-  </si>
-  <si>
-    <t>17575789-9</t>
-  </si>
-  <si>
-    <t>JENNIFER SANDOVAL PADILLA</t>
-  </si>
-  <si>
-    <t>5/6/1990</t>
-  </si>
-  <si>
-    <t>PASAJE CABURGA 378 LOS LAGOS II,MELIPILLA - XIII REGI&amp;Oacute</t>
-  </si>
-  <si>
-    <t>17683919-8</t>
-  </si>
-  <si>
-    <t>LUIS CASTRO CASTRO</t>
-  </si>
-  <si>
-    <t>9/1/1990</t>
-  </si>
-  <si>
-    <t>2024-01-16</t>
-  </si>
-  <si>
-    <t>PJE LUMANCO SITIO 3 CULIPRAN CODIGUA S/N</t>
-  </si>
-  <si>
-    <t>2024-05-07 12:00:00</t>
-  </si>
-  <si>
-    <t>18487379-6</t>
-  </si>
-  <si>
-    <t>FELIPE CARO TAPIA</t>
-  </si>
-  <si>
-    <t>6/21/1993</t>
-  </si>
-  <si>
-    <t>IRARRAZABAL 490 POMAIRE</t>
-  </si>
-  <si>
-    <t>2024-05-07 03:00:00</t>
-  </si>
-  <si>
-    <t>20603910-8</t>
-  </si>
-  <si>
-    <t>MARTIN ORELLANA VASQUEZ</t>
-  </si>
-  <si>
-    <t>1/3/2001</t>
-  </si>
-  <si>
-    <t>KATTY QUIROGA 773 - CHACRA MARIN</t>
-  </si>
-  <si>
-    <t>20604327-K</t>
-  </si>
-  <si>
-    <t>LISETTE ORTEGA DIAZ</t>
-  </si>
-  <si>
-    <t>4/2/2001</t>
-  </si>
-  <si>
-    <t>2024-01-11</t>
-  </si>
-  <si>
-    <t>2024-05-07 21:00:00</t>
-  </si>
-  <si>
-    <t>27402244-2</t>
-  </si>
-  <si>
-    <t>CARLOS CARRERO GONZALEZ</t>
-  </si>
-  <si>
-    <t>10/18/2002</t>
-  </si>
-  <si>
-    <t>Pje.: Jose Arias # 506 . Pobl: Padre Demetrio. Melipilla</t>
-  </si>
-  <si>
-    <t>2024-05-07 13:00:00</t>
-  </si>
-  <si>
-    <t>27857765-1</t>
-  </si>
-  <si>
-    <t>SUSANA HOLANDA ORTIZ</t>
-  </si>
-  <si>
-    <t>2024-01-12</t>
-  </si>
-  <si>
-    <t>2024-05-07 23:00:00</t>
-  </si>
-  <si>
-    <t>3931407-K</t>
-  </si>
-  <si>
-    <t>LUCIA CARREÑO VALENZUELA</t>
-  </si>
-  <si>
-    <t>3/9/1950</t>
-  </si>
-  <si>
-    <t>Calle Villavicencio S/n - Unidad vecinal , Maria Pinto- Chile</t>
-  </si>
-  <si>
-    <t>3984730-2</t>
-  </si>
-  <si>
-    <t>JOSE ESPINOZA JELVES</t>
-  </si>
-  <si>
-    <t>4/3/1939</t>
-  </si>
-  <si>
-    <t>SALAR DEL HUASCO NORTE 18543</t>
-  </si>
-  <si>
-    <t>4305138-5</t>
-  </si>
-  <si>
-    <t>JUAN GONZALEZ ZUÑIGA</t>
-  </si>
-  <si>
-    <t>10/25/1941</t>
-  </si>
-  <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
-    <t>OHIGGINS 978</t>
-  </si>
-  <si>
-    <t>2024-05-07 02:00:00</t>
-  </si>
-  <si>
-    <t>4332742-9</t>
-  </si>
-  <si>
-    <t>RICARDO RIOS ARAVENA</t>
-  </si>
-  <si>
-    <t>1/30/1941</t>
-  </si>
-  <si>
-    <t>4363617-0</t>
-  </si>
-  <si>
-    <t>ELIANA SATRIANI GAMBONI</t>
-  </si>
-  <si>
-    <t>8/21/1940</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>Otro El Bosque Sitio1</t>
-  </si>
-  <si>
-    <t>5484635-5</t>
-  </si>
-  <si>
-    <t>JORGE ARMIJO REYES</t>
-  </si>
-  <si>
-    <t>7/15/1945</t>
-  </si>
-  <si>
-    <t>manuel aguero 1498 pob. juan fco.</t>
-  </si>
-  <si>
-    <t>966272181-94886594</t>
-  </si>
-  <si>
-    <t>2024-05-07 17:00:00</t>
-  </si>
-  <si>
-    <t>5752869-9</t>
-  </si>
-  <si>
-    <t>RICARDO OLIVERO SANCHEZ</t>
-  </si>
-  <si>
-    <t>9/4/1948</t>
-  </si>
-  <si>
-    <t>6731696-7</t>
-  </si>
-  <si>
-    <t>HUMBERTO ARMIJO PAVEZ</t>
-  </si>
-  <si>
-    <t>10/9/1948</t>
-  </si>
-  <si>
-    <t>CAUPOLICAN 903 - TTE. MERINO- UNIDAD VECINAL , MELIPILLA- CHILE</t>
-  </si>
-  <si>
-    <t>7190208-0</t>
-  </si>
-  <si>
-    <t>LAVINA LAZO AZOCAR</t>
-  </si>
-  <si>
-    <t>8/28/1954</t>
-  </si>
-  <si>
-    <t>EL ASIENTO ALHUE</t>
-  </si>
-  <si>
-    <t>7480941-3</t>
-  </si>
-  <si>
-    <t>OSCAR SILVA HERRERA</t>
-  </si>
-  <si>
-    <t>2/11/1956</t>
-  </si>
-  <si>
-    <t>JOSE ARGOMEDO 460 POBLACION PADRE DEMETRIO</t>
-  </si>
-  <si>
-    <t>7510297-6</t>
-  </si>
-  <si>
-    <t>MARIA AGUAYO AGUAYO</t>
-  </si>
-  <si>
-    <t>10/1/1958</t>
-  </si>
-  <si>
-    <t>PARCELA 1 - PABELLON- UNIDAD VECINAL , MELIPILLA- CHILE</t>
-  </si>
-  <si>
-    <t>2024-05-07 22:00:00</t>
-  </si>
-  <si>
-    <t>7648806-1</t>
-  </si>
-  <si>
-    <t>INES MORA ARAYA</t>
-  </si>
-  <si>
-    <t>11/3/1955</t>
-  </si>
-  <si>
-    <t>7705196-1</t>
+    <t>WILLIAMS REBOLLEDO 478 CAMPO LINDO</t>
+  </si>
+  <si>
+    <t>936200921-978554789</t>
+  </si>
+  <si>
+    <t>2024-05-08 12:00:00</t>
+  </si>
+  <si>
+    <t>7367269-4</t>
+  </si>
+  <si>
+    <t>ALVARO SALINAS ROJAS</t>
+  </si>
+  <si>
+    <t>7458682-1</t>
+  </si>
+  <si>
+    <t>CLERIA MONTOYA GONZALEZ</t>
+  </si>
+  <si>
+    <t>9/29/1954</t>
+  </si>
+  <si>
+    <t>CALLE MANUEL RODRIGUEZ 939 12 DE OCTUBRE, - -</t>
+  </si>
+  <si>
+    <t>2024-05-08 22:00:00</t>
+  </si>
+  <si>
+    <t>7614256-4</t>
+  </si>
+  <si>
+    <t>MARIA QUINTANILLA FUENTES</t>
+  </si>
+  <si>
+    <t>9/6/1953</t>
+  </si>
+  <si>
+    <t>LOS GUINDOS 01312 POBLACION RINCONADA</t>
+  </si>
+  <si>
+    <t>7727280-1</t>
   </si>
   <si>
     <t>NANCY REYES VILCHES</t>
@@ -593,12 +662,21 @@
     <t>HERMANAS MARAMBIO DEMETRIO BRAVO DP.203 BLOCK</t>
   </si>
   <si>
-    <t>2024-05-07 20:00:00</t>
-  </si>
-  <si>
     <t>7854453-8</t>
   </si>
   <si>
+    <t>ROSA SEPULVEDA MAULEN</t>
+  </si>
+  <si>
+    <t>6/12/1950</t>
+  </si>
+  <si>
+    <t>EDUARDO VELASQUEZ MANDINGA</t>
+  </si>
+  <si>
+    <t>7869696-6</t>
+  </si>
+  <si>
     <t>CLAUDIO HERNANDEZ RETAMALES</t>
   </si>
   <si>
@@ -614,55 +692,70 @@
     <t>996619542-9989676577</t>
   </si>
   <si>
-    <t>7884923-1</t>
-  </si>
-  <si>
-    <t>SERGIO CERDA DIAZ</t>
-  </si>
-  <si>
-    <t>10/25/1958</t>
-  </si>
-  <si>
-    <t>LOS RULOS S/N</t>
-  </si>
-  <si>
-    <t>7890716-9</t>
-  </si>
-  <si>
-    <t>EDUARDO PICHUN INOSTROZA</t>
-  </si>
-  <si>
-    <t>1/5/1960</t>
-  </si>
-  <si>
-    <t>SANTIGO DE AZOCAR 428 CAMPO LINDO</t>
-  </si>
-  <si>
-    <t>8084012-8</t>
-  </si>
-  <si>
-    <t>CARLOS LIZANA MUÑOZ</t>
-  </si>
-  <si>
-    <t>10/26/1957</t>
-  </si>
-  <si>
-    <t>PJE AUSTRIA 142 VILLA RINCONADA ORIENTE 0</t>
-  </si>
-  <si>
-    <t>8651641-1</t>
-  </si>
-  <si>
-    <t>RICARDO PIÑA GONZALEZ</t>
-  </si>
-  <si>
-    <t>12/30/1958</t>
-  </si>
-  <si>
-    <t>QUILAMUTA S/N</t>
-  </si>
-  <si>
-    <t>8878692-0</t>
+    <t>8102537-1</t>
+  </si>
+  <si>
+    <t>MARIA HERRERA CASTRO</t>
+  </si>
+  <si>
+    <t>12/30/1956</t>
+  </si>
+  <si>
+    <t>P0OB STA LAURA</t>
+  </si>
+  <si>
+    <t>8105523-8</t>
+  </si>
+  <si>
+    <t>ABELARDO OLGUIN URBANO</t>
+  </si>
+  <si>
+    <t>10/4/1957</t>
+  </si>
+  <si>
+    <t>CAMINO CHIMHUE LOTE 4</t>
+  </si>
+  <si>
+    <t>8451937-5</t>
+  </si>
+  <si>
+    <t>OLIVIA LOPEZ SILVA</t>
+  </si>
+  <si>
+    <t>5/18/1955</t>
+  </si>
+  <si>
+    <t>8557180-K</t>
+  </si>
+  <si>
+    <t>MARIO SEPULVEDA CUETO</t>
+  </si>
+  <si>
+    <t>12/20/1959</t>
+  </si>
+  <si>
+    <t>Av. Ancelmo Alarcon paradero 4 1/2 callejon lo espejo 428 BOLLENAR</t>
+  </si>
+  <si>
+    <t>937091314-933168363</t>
+  </si>
+  <si>
+    <t>2024-05-08 01:00:00</t>
+  </si>
+  <si>
+    <t>8891027-3</t>
+  </si>
+  <si>
+    <t>SARA ARAVENA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>5/28/1965</t>
+  </si>
+  <si>
+    <t>EL BAJO PARCELA 4</t>
+  </si>
+  <si>
+    <t>8906241-1</t>
   </si>
   <si>
     <t>ISABEL CARRASCO CARRASCO</t>
@@ -671,22 +764,40 @@
     <t>9/28/1959</t>
   </si>
   <si>
-    <t>9869652-0</t>
-  </si>
-  <si>
-    <t>MARCOS FARIAS FARIAS</t>
-  </si>
-  <si>
-    <t>11/5/1964</t>
+    <t>9221462-1</t>
+  </si>
+  <si>
+    <t>MARIA HERNANDEZ BECERRA</t>
+  </si>
+  <si>
+    <t>10/4/1962</t>
+  </si>
+  <si>
+    <t>EL BOSQUE S/N</t>
+  </si>
+  <si>
+    <t>9532288-3</t>
+  </si>
+  <si>
+    <t>SONIA PANCHILLA TOLOZA</t>
+  </si>
+  <si>
+    <t>12/30/1963</t>
+  </si>
+  <si>
+    <t>PJE AMATISTA 44 STA ROSA DE ESMERALDA</t>
   </si>
   <si>
     <t>9980822-5</t>
   </si>
   <si>
-    <t>LILIANA FUENTES RIQUELME</t>
-  </si>
-  <si>
-    <t>5/27/1974</t>
+    <t>MONICA CASTRO DIAZ</t>
+  </si>
+  <si>
+    <t>6/9/1962</t>
+  </si>
+  <si>
+    <t>VALLE DE MELIPILLA VOLCAN CALBUCO BLOCK 202 DPTO</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1137,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,25 +1185,19 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>405011</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1100,36 +1205,34 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2">
+        <v>9961262971</v>
+      </c>
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2">
-        <v>9961262971</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>403018</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1137,36 +1240,34 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3">
+        <v>94092665</v>
+      </c>
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3">
-        <v>94092665</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>403001</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1174,36 +1275,34 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
+      <c r="L4">
+        <v>933291248</v>
+      </c>
       <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4">
-        <v>933291248</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>403016</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1211,238 +1310,232 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>405001</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>405006</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>405007</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8">
+      <c r="L8">
         <v>949868274</v>
       </c>
-      <c r="O8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>403001</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9">
+      <c r="L9">
         <v>989241364</v>
       </c>
-      <c r="O9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
-        <v>403016</v>
+        <v>403014</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
+      <c r="E10">
+        <v>2</v>
+      </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
         <v>50</v>
       </c>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10" t="s">
+      <c r="L10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="M10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
-        <v>403016</v>
+        <v>403014</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
+      <c r="L11">
+        <v>966064095</v>
+      </c>
       <c r="M11" t="s">
         <v>55</v>
       </c>
-      <c r="N11"/>
-      <c r="O11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>405098</v>
       </c>
       <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="E12">
+        <v>2</v>
+      </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>59</v>
       </c>
       <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12">
-        <v>950172041</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>989558651</v>
+      </c>
+      <c r="M12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>404016</v>
       </c>
@@ -1464,33 +1557,31 @@
         <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>999474311</v>
+      </c>
       <c r="M13" t="s">
         <v>65</v>
       </c>
-      <c r="N13" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>403001</v>
       </c>
       <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1498,36 +1589,34 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14">
+        <v>977822186</v>
+      </c>
       <c r="M14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14">
-        <v>999512476</v>
-      </c>
-      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>405005</v>
+      </c>
+      <c r="B15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15">
-        <v>405007</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1535,108 +1624,96 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" t="s">
         <v>74</v>
       </c>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
+      <c r="L15">
+        <v>73429623</v>
+      </c>
       <c r="M15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>404118</v>
+      </c>
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="N15"/>
-      <c r="O15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16">
-        <v>403014</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
+      <c r="D16"/>
+      <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>403007</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
         <v>79</v>
       </c>
-      <c r="N16">
-        <v>985987526</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="D17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17">
-        <v>403019</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="K17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17">
+        <v>984631239</v>
+      </c>
       <c r="M17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>405098</v>
+      </c>
+      <c r="B18" t="s">
         <v>84</v>
       </c>
-      <c r="N17">
-        <v>992368762</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="C18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18">
-        <v>403013</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1644,36 +1721,34 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18">
+        <v>976600832</v>
+      </c>
+      <c r="M18" t="s">
         <v>89</v>
       </c>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18" t="s">
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>403007</v>
+      </c>
+      <c r="B19" t="s">
         <v>90</v>
       </c>
-      <c r="N18">
-        <v>983336652</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="C19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19">
-        <v>403106</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1681,36 +1756,34 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19">
+        <v>989625913</v>
+      </c>
+      <c r="M19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>405001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19" t="s">
+      <c r="D20" t="s">
         <v>96</v>
-      </c>
-      <c r="N19">
-        <v>959364501</v>
-      </c>
-      <c r="O19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20">
-        <v>403014</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>99</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1718,95 +1791,91 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" t="s">
         <v>25</v>
       </c>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
+      <c r="L20">
+        <v>952661875</v>
+      </c>
       <c r="M20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>404012</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
         <v>100</v>
       </c>
-      <c r="N20">
-        <v>988488640</v>
-      </c>
-      <c r="O20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21">
-        <v>403017</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21"/>
+      <c r="E21">
+        <v>1</v>
+      </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="J21"/>
-      <c r="K21"/>
+      <c r="K21" t="s">
+        <v>101</v>
+      </c>
       <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21">
-        <v>989549449</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="M21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>403001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22">
-        <v>403016</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>104</v>
       </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" t="s">
-        <v>106</v>
-      </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="J22"/>
-      <c r="K22"/>
+      <c r="K22" t="s">
+        <v>106</v>
+      </c>
       <c r="L22"/>
       <c r="M22" t="s">
         <v>107</v>
       </c>
-      <c r="N22">
-        <v>948663608</v>
-      </c>
-      <c r="O22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
-        <v>403016</v>
+        <v>403014</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
@@ -1818,74 +1887,74 @@
         <v>110</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" t="s">
         <v>111</v>
       </c>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
+      <c r="L23" t="s">
+        <v>112</v>
+      </c>
       <c r="M23" t="s">
-        <v>112</v>
-      </c>
-      <c r="N23"/>
-      <c r="O23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
-        <v>403013</v>
+        <v>403014</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
+      <c r="K24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24">
+        <v>988488640</v>
+      </c>
       <c r="M24" t="s">
-        <v>112</v>
-      </c>
-      <c r="N24"/>
-      <c r="O24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
-        <v>405007</v>
+        <v>403014</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1893,34 +1962,34 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>121</v>
+      </c>
       <c r="M25" t="s">
-        <v>117</v>
-      </c>
-      <c r="N25"/>
-      <c r="O25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>403017</v>
+      </c>
+      <c r="B26" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26">
-        <v>403016</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>119</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>120</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1928,34 +1997,34 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26" t="s">
         <v>25</v>
       </c>
-      <c r="I26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
+      <c r="L26" t="s">
+        <v>121</v>
+      </c>
       <c r="M26" t="s">
-        <v>122</v>
-      </c>
-      <c r="N26"/>
-      <c r="O26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
-        <v>403013</v>
+        <v>405013</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1963,130 +2032,124 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
+      <c r="K27" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27">
+        <v>985642437</v>
+      </c>
       <c r="M27" t="s">
-        <v>122</v>
-      </c>
-      <c r="N27"/>
-      <c r="O27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
-        <v>403014</v>
+        <v>403021</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
-      <c r="L28"/>
+      <c r="L28">
+        <v>989374786</v>
+      </c>
       <c r="M28" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28">
-        <v>990178143</v>
-      </c>
-      <c r="O28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
-        <v>403001</v>
+        <v>405013</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
+      <c r="K29" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29">
+        <v>986455714</v>
+      </c>
       <c r="M29" t="s">
-        <v>131</v>
-      </c>
-      <c r="N29">
-        <v>933306155</v>
-      </c>
-      <c r="O29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>403014</v>
       </c>
       <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
         <v>133</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>134</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
+      <c r="E30">
+        <v>0</v>
+      </c>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30" t="s">
         <v>135</v>
       </c>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30">
-        <v>936199260</v>
-      </c>
-      <c r="O30" t="s">
+      <c r="L30">
+        <v>986455714</v>
+      </c>
+      <c r="M30" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:13">
       <c r="A31">
-        <v>403001</v>
+        <v>403013</v>
       </c>
       <c r="B31" t="s">
         <v>137</v>
@@ -2098,30 +2161,28 @@
         <v>139</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J31"/>
-      <c r="K31"/>
+      <c r="K31" t="s">
+        <v>140</v>
+      </c>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>140</v>
-      </c>
-      <c r="N31"/>
-      <c r="O31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
-        <v>403001</v>
+        <v>405001</v>
       </c>
       <c r="B32" t="s">
         <v>141</v>
@@ -2133,41 +2194,39 @@
         <v>143</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
+      <c r="K32" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" t="s">
+        <v>145</v>
+      </c>
       <c r="M32" t="s">
-        <v>144</v>
-      </c>
-      <c r="N32">
-        <v>96215997</v>
-      </c>
-      <c r="O32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
-        <v>403001</v>
+        <v>403021</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2175,27 +2234,25 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="K33" t="s">
+        <v>150</v>
+      </c>
+      <c r="L33">
+        <v>992155459</v>
+      </c>
       <c r="M33" t="s">
-        <v>149</v>
-      </c>
-      <c r="N33">
-        <v>954675521</v>
-      </c>
-      <c r="O33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
-        <v>405011</v>
+        <v>403013</v>
       </c>
       <c r="B34" t="s">
         <v>151</v>
@@ -2212,36 +2269,32 @@
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="J34"/>
-      <c r="K34"/>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
       <c r="L34"/>
       <c r="M34" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34">
-        <v>930272052</v>
-      </c>
-      <c r="O34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>403001</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2249,69 +2302,69 @@
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35" t="s">
         <v>25</v>
       </c>
-      <c r="I35" t="s">
-        <v>157</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="L35">
+        <v>935131125</v>
+      </c>
       <c r="M35" t="s">
-        <v>158</v>
-      </c>
-      <c r="N35"/>
-      <c r="O35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>403001</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
+      <c r="K36" t="s">
+        <v>161</v>
+      </c>
+      <c r="L36">
+        <v>954675521</v>
+      </c>
       <c r="M36" t="s">
-        <v>158</v>
-      </c>
-      <c r="N36"/>
-      <c r="O36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
-        <v>403001</v>
+        <v>405011</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2319,108 +2372,104 @@
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37" t="s">
         <v>25</v>
       </c>
-      <c r="I37" t="s">
-        <v>126</v>
-      </c>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="L37" t="s">
+        <v>165</v>
+      </c>
       <c r="M37" t="s">
-        <v>162</v>
-      </c>
-      <c r="N37" t="s">
-        <v>163</v>
-      </c>
-      <c r="O37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>403001</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
+      <c r="K38" t="s">
+        <v>170</v>
+      </c>
+      <c r="L38">
+        <v>992622244</v>
+      </c>
       <c r="M38" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38">
-        <v>954794954</v>
-      </c>
-      <c r="O38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>403001</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
+      <c r="K39" t="s">
+        <v>175</v>
+      </c>
+      <c r="L39">
+        <v>973318741</v>
+      </c>
       <c r="M39" t="s">
-        <v>171</v>
-      </c>
-      <c r="N39"/>
-      <c r="O39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
-        <v>403102</v>
+        <v>403012</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2428,73 +2477,67 @@
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
+      <c r="K40" t="s">
+        <v>180</v>
+      </c>
+      <c r="L40">
+        <v>993374207</v>
+      </c>
       <c r="M40" t="s">
-        <v>175</v>
-      </c>
-      <c r="N40">
-        <v>946546670</v>
-      </c>
-      <c r="O40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
-        <v>403001</v>
+        <v>405001</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D41" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="J41"/>
-      <c r="K41"/>
+      <c r="K41" t="s">
+        <v>184</v>
+      </c>
       <c r="L41"/>
       <c r="M41" t="s">
-        <v>179</v>
-      </c>
-      <c r="N41">
-        <v>942462193</v>
-      </c>
-      <c r="O41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
-        <v>403001</v>
+        <v>403013</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2502,396 +2545,372 @@
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>188</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42" t="s">
         <v>25</v>
       </c>
-      <c r="I42" t="s">
-        <v>59</v>
-      </c>
-      <c r="J42"/>
-      <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>183</v>
-      </c>
-      <c r="N42">
-        <v>979219165</v>
-      </c>
-      <c r="O42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
-        <v>405001</v>
+        <v>404016</v>
       </c>
       <c r="B43" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
+      <c r="K43" t="s">
+        <v>192</v>
+      </c>
+      <c r="L43">
+        <v>988633450</v>
+      </c>
       <c r="M43" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43">
-        <v>996933578</v>
-      </c>
-      <c r="O43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
-        <v>403016</v>
+        <v>405005</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
+      <c r="K44" t="s">
+        <v>197</v>
+      </c>
+      <c r="L44" t="s">
+        <v>198</v>
+      </c>
       <c r="M44" t="s">
-        <v>191</v>
-      </c>
-      <c r="N44"/>
-      <c r="O44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
-        <v>403013</v>
+        <v>403102</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
+      <c r="K45" t="s">
+        <v>197</v>
+      </c>
+      <c r="L45" t="s">
+        <v>198</v>
+      </c>
       <c r="M45" t="s">
-        <v>191</v>
-      </c>
-      <c r="N45"/>
-      <c r="O45" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
-        <v>403013</v>
+        <v>405016</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D46" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
-      <c r="L46"/>
+      <c r="L46">
+        <v>957166143</v>
+      </c>
       <c r="M46" t="s">
-        <v>191</v>
-      </c>
-      <c r="N46"/>
-      <c r="O46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
-        <v>405011</v>
+        <v>403013</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
+      <c r="K47" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47">
+        <v>973575134</v>
+      </c>
       <c r="M47" t="s">
-        <v>197</v>
-      </c>
-      <c r="N47" t="s">
-        <v>198</v>
-      </c>
-      <c r="O47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
-        <v>405001</v>
+        <v>405007</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
+      <c r="K48" t="s">
+        <v>210</v>
+      </c>
+      <c r="L48">
+        <v>983782655</v>
+      </c>
       <c r="M48" t="s">
-        <v>202</v>
-      </c>
-      <c r="N48">
-        <v>997301937</v>
-      </c>
-      <c r="O48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
-        <v>403017</v>
+        <v>403016</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J49"/>
-      <c r="K49"/>
+      <c r="K49" t="s">
+        <v>214</v>
+      </c>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>206</v>
-      </c>
-      <c r="N49">
-        <v>443007583</v>
-      </c>
-      <c r="O49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
-        <v>405007</v>
+        <v>403013</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="J50"/>
-      <c r="K50"/>
+      <c r="K50" t="s">
+        <v>214</v>
+      </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>210</v>
-      </c>
-      <c r="N50"/>
-      <c r="O50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
-        <v>403016</v>
+        <v>403001</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
+      <c r="K51" t="s">
+        <v>218</v>
+      </c>
+      <c r="L51">
+        <v>950981064</v>
+      </c>
       <c r="M51" t="s">
-        <v>214</v>
-      </c>
-      <c r="N51"/>
-      <c r="O51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
-        <v>403012</v>
+        <v>405011</v>
       </c>
       <c r="B52" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I52" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
+      <c r="K52" t="s">
+        <v>223</v>
+      </c>
+      <c r="L52" t="s">
+        <v>224</v>
+      </c>
       <c r="M52" t="s">
-        <v>27</v>
-      </c>
-      <c r="N52">
-        <v>997447663</v>
-      </c>
-      <c r="O52" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
-        <v>403016</v>
+        <v>403001</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2899,108 +2918,104 @@
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
+      <c r="K53" t="s">
+        <v>228</v>
+      </c>
+      <c r="L53">
+        <v>977227627</v>
+      </c>
       <c r="M53" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53">
-        <v>997447663</v>
-      </c>
-      <c r="O53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
-        <v>403013</v>
+        <v>403014</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D54" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
+      <c r="K54" t="s">
+        <v>232</v>
+      </c>
+      <c r="L54">
+        <v>968456467</v>
+      </c>
       <c r="M54" t="s">
-        <v>27</v>
-      </c>
-      <c r="N54">
-        <v>997447663</v>
-      </c>
-      <c r="O54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
-        <v>403014</v>
+        <v>405026</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55" t="s">
         <v>25</v>
       </c>
-      <c r="I55" t="s">
-        <v>47</v>
-      </c>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
+      <c r="L55">
+        <v>948873876</v>
+      </c>
       <c r="M55" t="s">
-        <v>27</v>
-      </c>
-      <c r="N55"/>
-      <c r="O55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
-        <v>403013</v>
+        <v>403001</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3008,34 +3023,34 @@
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
+      <c r="K56" t="s">
+        <v>239</v>
+      </c>
+      <c r="L56" t="s">
+        <v>240</v>
+      </c>
       <c r="M56" t="s">
-        <v>27</v>
-      </c>
-      <c r="N56"/>
-      <c r="O56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
-        <v>405011</v>
+        <v>403014</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -3043,20 +3058,158 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="J57"/>
-      <c r="K57"/>
+      <c r="K57" t="s">
+        <v>245</v>
+      </c>
       <c r="L57"/>
       <c r="M57" t="s">
-        <v>27</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <v>403013</v>
+      </c>
+      <c r="B58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" t="s">
+        <v>248</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58">
+        <v>997447663</v>
+      </c>
+      <c r="M58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
+        <v>405001</v>
+      </c>
+      <c r="B59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" t="s">
+        <v>251</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59" t="s">
+        <v>252</v>
+      </c>
+      <c r="L59">
+        <v>961915248</v>
+      </c>
+      <c r="M59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <v>405001</v>
+      </c>
+      <c r="B60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" t="s">
+        <v>254</v>
+      </c>
+      <c r="D60" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s">
+        <v>154</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60" t="s">
+        <v>256</v>
+      </c>
+      <c r="L60">
+        <v>992128246</v>
+      </c>
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
+        <v>405011</v>
+      </c>
+      <c r="B61" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" t="s">
+        <v>259</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>154</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61" t="s">
+        <v>260</v>
+      </c>
+      <c r="L61">
+        <v>961734907</v>
+      </c>
+      <c r="M61" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/exportacion.xlsx
+++ b/exportacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Código</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>VIA_DIRECCION</t>
+  </si>
+  <si>
+    <t>ESTAB_ORIG</t>
+  </si>
+  <si>
+    <t>ESTAB_DEST</t>
+  </si>
+  <si>
+    <t>E_OTOR_AT</t>
   </si>
   <si>
     <t>10185877-4</t>
@@ -480,7 +489,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +497,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,25 +582,34 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>403001</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -599,29 +617,29 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2">
         <v>5</v>
       </c>
       <c r="N2"/>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>9630532233</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S2">
         <v>10</v>
@@ -643,13 +661,22 @@
         <v>13501</v>
       </c>
       <c r="Z2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB2" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="AC2">
+        <v>110150</v>
+      </c>
+      <c r="AD2">
+        <v>110150</v>
+      </c>
+      <c r="AE2">
+        <v>110150</v>
       </c>
     </row>
   </sheetData>

--- a/exportacion.xlsx
+++ b/exportacion.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+  <si>
+    <t>ID_LOCAL</t>
+  </si>
   <si>
     <t>Código</t>
   </si>
@@ -23,6 +26,9 @@
     <t>RUN</t>
   </si>
   <si>
+    <t>DV</t>
+  </si>
+  <si>
     <t>NOMBRES</t>
   </si>
   <si>
@@ -80,9 +86,6 @@
     <t>TIPO_PREST</t>
   </si>
   <si>
-    <t>DV</t>
-  </si>
-  <si>
     <t>PRAIS</t>
   </si>
   <si>
@@ -110,7 +113,37 @@
     <t>E_OTOR_AT</t>
   </si>
   <si>
-    <t>10185877-4</t>
+    <t>NUM_DIRECCION</t>
+  </si>
+  <si>
+    <t>RESTO_DIRECCION</t>
+  </si>
+  <si>
+    <t>FONO_FIJO</t>
+  </si>
+  <si>
+    <t>FONO_MOVIL</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>SIGETE_ID</t>
+  </si>
+  <si>
+    <t>RUN_PROF_RESOL</t>
+  </si>
+  <si>
+    <t>DV_PROF_RESOL</t>
+  </si>
+  <si>
+    <t>RUN_PROF_SOL</t>
+  </si>
+  <si>
+    <t>DV_PROF_SOL</t>
   </si>
   <si>
     <t>MANUEL</t>
@@ -489,7 +522,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +530,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:43">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,86 +624,124 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:43">
       <c r="A2">
+        <v>8090</v>
+      </c>
+      <c r="B2">
         <v>403001</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
+      <c r="C2">
+        <v>10185877</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2">
         <v>5</v>
       </c>
-      <c r="N2"/>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2">
+      <c r="P2"/>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2">
         <v>9630532233</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2">
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2">
         <v>10</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>3</v>
       </c>
-      <c r="V2"/>
-      <c r="W2">
+      <c r="X2">
         <v>2</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>13</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>13501</v>
       </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AB2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2">
-        <v>110150</v>
+        <v>54</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>55</v>
       </c>
       <c r="AD2">
         <v>110150</v>
@@ -678,6 +749,20 @@
       <c r="AE2">
         <v>110150</v>
       </c>
+      <c r="AF2">
+        <v>110150</v>
+      </c>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/exportacion.xlsx
+++ b/exportacion.xlsx
@@ -20,13 +20,13 @@
     <t>ID_LOCAL</t>
   </si>
   <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
     <t>Código</t>
-  </si>
-  <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>DV</t>
   </si>
   <si>
     <t>NOMBRES</t>

--- a/exportacion.xlsx
+++ b/exportacion.xlsx
@@ -15,20 +15,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>ID_LOCAL</t>
   </si>
   <si>
+    <t>PRESTA_MIN_SALIDA</t>
+  </si>
+  <si>
     <t>RUN</t>
   </si>
   <si>
     <t>DV</t>
   </si>
   <si>
-    <t>Código</t>
-  </si>
-  <si>
     <t>NOMBRES</t>
   </si>
   <si>
@@ -71,79 +71,76 @@
     <t>NOM_CALLE</t>
   </si>
   <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
     <t>F_CITACION</t>
   </si>
   <si>
+    <t>PREVISION</t>
+  </si>
+  <si>
+    <t>TIPO_PREST</t>
+  </si>
+  <si>
+    <t>ESTAB_ORIG</t>
+  </si>
+  <si>
+    <t>ESTAB_DEST</t>
+  </si>
+  <si>
+    <t>E_OTOR_AT</t>
+  </si>
+  <si>
+    <t>PRAIS</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>COMUNA</t>
+  </si>
+  <si>
+    <t>CIUDAD</t>
+  </si>
+  <si>
+    <t>COND_RURALIDAD</t>
+  </si>
+  <si>
+    <t>VIA_DIRECCION</t>
+  </si>
+  <si>
+    <t>NUM_DIRECCION</t>
+  </si>
+  <si>
+    <t>RESTO_DIRECCION</t>
+  </si>
+  <si>
+    <t>FONO_FIJO</t>
+  </si>
+  <si>
+    <t>FONO_MOVIL</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>RUN_PROF_SOL</t>
+  </si>
+  <si>
+    <t>DV_PROF_SOL</t>
+  </si>
+  <si>
+    <t>RUN_PROF_RESOL</t>
+  </si>
+  <si>
+    <t>DV_PROF_RESOL</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>SIGETE_ID</t>
+  </si>
+  <si>
     <t>SERV_SALUD</t>
-  </si>
-  <si>
-    <t>PREVISION</t>
-  </si>
-  <si>
-    <t>TIPO_PREST</t>
-  </si>
-  <si>
-    <t>PRAIS</t>
-  </si>
-  <si>
-    <t>REGION</t>
-  </si>
-  <si>
-    <t>COMUNA</t>
-  </si>
-  <si>
-    <t>CIUDAD</t>
-  </si>
-  <si>
-    <t>COND_RURALIDAD</t>
-  </si>
-  <si>
-    <t>VIA_DIRECCION</t>
-  </si>
-  <si>
-    <t>ESTAB_ORIG</t>
-  </si>
-  <si>
-    <t>ESTAB_DEST</t>
-  </si>
-  <si>
-    <t>E_OTOR_AT</t>
-  </si>
-  <si>
-    <t>NUM_DIRECCION</t>
-  </si>
-  <si>
-    <t>RESTO_DIRECCION</t>
-  </si>
-  <si>
-    <t>FONO_FIJO</t>
-  </si>
-  <si>
-    <t>FONO_MOVIL</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>RESULTADO</t>
-  </si>
-  <si>
-    <t>SIGETE_ID</t>
-  </si>
-  <si>
-    <t>RUN_PROF_RESOL</t>
-  </si>
-  <si>
-    <t>DV_PROF_RESOL</t>
-  </si>
-  <si>
-    <t>RUN_PROF_SOL</t>
-  </si>
-  <si>
-    <t>DV_PROF_SOL</t>
   </si>
   <si>
     <t>MANUEL</t>
@@ -522,7 +519,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +527,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,11 +654,8 @@
       <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:42">
       <c r="A2">
         <v>8090</v>
       </c>
@@ -675,16 +669,16 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -692,47 +686,47 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
       </c>
       <c r="O2">
         <v>5</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>51</v>
       </c>
-      <c r="S2">
-        <v>9630532233</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="T2">
+        <v>10</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>13</v>
+      </c>
+      <c r="Y2">
+        <v>13501</v>
+      </c>
+      <c r="Z2" t="s">
         <v>52</v>
-      </c>
-      <c r="U2">
-        <v>10</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2">
-        <v>13</v>
-      </c>
-      <c r="Z2">
-        <v>13501</v>
       </c>
       <c r="AA2" t="s">
         <v>53</v>
@@ -740,8 +734,8 @@
       <c r="AB2" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" t="s">
-        <v>55</v>
+      <c r="AC2">
+        <v>110150</v>
       </c>
       <c r="AD2">
         <v>110150</v>
@@ -749,9 +743,7 @@
       <c r="AE2">
         <v>110150</v>
       </c>
-      <c r="AF2">
-        <v>110150</v>
-      </c>
+      <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
@@ -762,7 +754,6 @@
       <c r="AN2"/>
       <c r="AO2"/>
       <c r="AP2"/>
-      <c r="AQ2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/exportacion.xlsx
+++ b/exportacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
   <si>
     <t>ID_LOCAL</t>
   </si>
@@ -143,43 +143,901 @@
     <t>SERV_SALUD</t>
   </si>
   <si>
-    <t>MANUEL</t>
-  </si>
-  <si>
-    <t>ARMIJO</t>
-  </si>
-  <si>
-    <t>PALACIOS</t>
-  </si>
-  <si>
-    <t>2/19/1965</t>
+    <t>OSIRIS</t>
+  </si>
+  <si>
+    <t>VELASQUEZ</t>
+  </si>
+  <si>
+    <t>ESCOBAR</t>
+  </si>
+  <si>
+    <t>3/11/1965</t>
+  </si>
+  <si>
+    <t>Resonancia magnetica</t>
+  </si>
+  <si>
+    <t>2024-01-19</t>
+  </si>
+  <si>
+    <t>VICTOR BRAUN 207 VILLA FUTURO</t>
+  </si>
+  <si>
+    <t>2024-05-08 15:40:00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>MELIPILLA</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ARRAÑO</t>
+  </si>
+  <si>
+    <t>6/13/1965</t>
   </si>
   <si>
     <t>Scanner</t>
   </si>
   <si>
-    <t>2023-05-29</t>
-  </si>
-  <si>
-    <t>2024-05-08</t>
-  </si>
-  <si>
-    <t>HEMORRAGIA SUBDURAL</t>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>INFARTO CEREBRAL</t>
   </si>
   <si>
     <t>sin registro</t>
   </si>
   <si>
-    <t>2023-09-22 11:40:00</t>
-  </si>
-  <si>
-    <t>MELIPILLA</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>04</t>
+    <t>2024-05-08 19:00:00</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>ARAYA</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>5/3/1966</t>
+  </si>
+  <si>
+    <t>2024-05-08 09:00:00</t>
+  </si>
+  <si>
+    <t>GLORIA</t>
+  </si>
+  <si>
+    <t>RABI</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>8/26/1966</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>TUMOR MALIGNO DEL RIÑON</t>
+  </si>
+  <si>
+    <t>2024-05-08 00:00:00</t>
+  </si>
+  <si>
+    <t>GEORGINA</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>GARRIDO</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>2024-05-08 10:00:00</t>
+  </si>
+  <si>
+    <t>HERMINIA</t>
+  </si>
+  <si>
+    <t>FUENTES</t>
+  </si>
+  <si>
+    <t>2024-05-08 11:00:00</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>SILVA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>2024-01-31</t>
+  </si>
+  <si>
+    <t>YESICA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>7/14/1970</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>HEMATURIA</t>
+  </si>
+  <si>
+    <t>CULEBRAS VERDES, LOTE 1, PARC 19, BOLLENAR</t>
+  </si>
+  <si>
+    <t>2024-05-08 15:00:00</t>
+  </si>
+  <si>
+    <t>ZOILA</t>
+  </si>
+  <si>
+    <t>ACEVEDO</t>
+  </si>
+  <si>
+    <t>PIZARRO</t>
+  </si>
+  <si>
+    <t>QUISTE DE RINON ADQUIRIDO</t>
+  </si>
+  <si>
+    <t>2024-05-08 17:00:00</t>
+  </si>
+  <si>
+    <t>MERCEDES</t>
+  </si>
+  <si>
+    <t>MENARES</t>
+  </si>
+  <si>
+    <t>10/25/1955</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>COLELITIASIS</t>
+  </si>
+  <si>
+    <t>2024-05-08 14:00:00</t>
+  </si>
+  <si>
+    <t>RITA</t>
+  </si>
+  <si>
+    <t>QUINTANILLA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2/28/1972</t>
+  </si>
+  <si>
+    <t>Ecografía</t>
+  </si>
+  <si>
+    <t>SINDROME DEL TUNEL CARPIANO</t>
+  </si>
+  <si>
+    <t>2024-05-08 07:00:00</t>
+  </si>
+  <si>
+    <t>DAMARIS</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ESCALONA</t>
+  </si>
+  <si>
+    <t>6/15/1974</t>
+  </si>
+  <si>
+    <t>CEFALEA</t>
+  </si>
+  <si>
+    <t>PJE. BENJAMIN ULLOA VALENZUELA 288 V. MARTITA ROMANINI</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>FARIAS</t>
+  </si>
+  <si>
+    <t>BENITES</t>
+  </si>
+  <si>
+    <t>6/9/1974</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>Las Acasias # 2, Camino Cholqui</t>
+  </si>
+  <si>
+    <t>IRIS</t>
+  </si>
+  <si>
+    <t>CERDA</t>
+  </si>
+  <si>
+    <t>PEREIRA</t>
+  </si>
+  <si>
+    <t>2024-05-08 16:00:00</t>
+  </si>
+  <si>
+    <t>RAMON</t>
+  </si>
+  <si>
+    <t>FONSECA</t>
+  </si>
+  <si>
+    <t>DOEPKING</t>
+  </si>
+  <si>
+    <t>11/16/1977</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>DESVIACION DEL TABIQUE NASAL</t>
+  </si>
+  <si>
+    <t>CAUQUENES 6918</t>
+  </si>
+  <si>
+    <t>2024-05-08 06:00:00</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>OLMEDO</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>9/2/1978</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>San Ramon Mallarauco S/n Melipilla</t>
+  </si>
+  <si>
+    <t>2024-05-08 18:00:00</t>
+  </si>
+  <si>
+    <t>ALEJANDRA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>ITURRIETA</t>
+  </si>
+  <si>
+    <t>7/10/1979</t>
+  </si>
+  <si>
+    <t>PJE LAGO VERDE 425, LOS LAGOS 3</t>
+  </si>
+  <si>
+    <t>ALICIA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>5/9/1979</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>PARESTESIA DE LA PIEL</t>
+  </si>
+  <si>
+    <t>FREDDY</t>
+  </si>
+  <si>
+    <t>4/14/1976</t>
+  </si>
+  <si>
+    <t>LESION DE SITIOS CONTIGUOS DE LA MAMA</t>
+  </si>
+  <si>
+    <t>HURTADO 158</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>BOBADILLA</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>12/29/1981</t>
+  </si>
+  <si>
+    <t>2024-01-10</t>
+  </si>
+  <si>
+    <t>HEMORRAGIA SUBDURAL TRAUMATICA</t>
+  </si>
+  <si>
+    <t>VILLA SANTA RITA LOS CANELOS NÃ‚Â°317 LOS RULOS</t>
+  </si>
+  <si>
+    <t>2024-05-08 08:00:00</t>
+  </si>
+  <si>
+    <t>FRESIA</t>
+  </si>
+  <si>
+    <t>AGUSTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERO </t>
+  </si>
+  <si>
+    <t>5/9/1984</t>
+  </si>
+  <si>
+    <t>CALCULO AL RIÑON</t>
+  </si>
+  <si>
+    <t>VALLE DEL ACONCAGUA 2235, VILLA SOL DEL VALLE</t>
+  </si>
+  <si>
+    <t>2024-05-08 20:00:00</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>8/11/1985</t>
+  </si>
+  <si>
+    <t>CALCULO DEL RINON</t>
+  </si>
+  <si>
+    <t>los maitenes 122. la foresta</t>
+  </si>
+  <si>
+    <t>CLAUDIO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADASME </t>
+  </si>
+  <si>
+    <t>12/11/1985</t>
+  </si>
+  <si>
+    <t>CLACULO DEL RINON</t>
+  </si>
+  <si>
+    <t>2024-05-08 04:00:00</t>
+  </si>
+  <si>
+    <t>2024-01-09</t>
+  </si>
+  <si>
+    <t>CONDROMALACIA DE LA ROTULA</t>
+  </si>
+  <si>
+    <t>SEBASTIAN</t>
+  </si>
+  <si>
+    <t>SANTIS</t>
+  </si>
+  <si>
+    <t>6/18/1990</t>
+  </si>
+  <si>
+    <t>CONTUSION</t>
+  </si>
+  <si>
+    <t>PARCELA 3 LA CARRERA MALLARAUCO</t>
+  </si>
+  <si>
+    <t>2024-05-08 03:00:00</t>
+  </si>
+  <si>
+    <t>GALDAMES</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CALCULO RENAL</t>
+  </si>
+  <si>
+    <t>2024-05-08 02:00:00</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>HERMOSILLA</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>7/10/2000</t>
+  </si>
+  <si>
+    <t>CALLE GUILLERMO BARROS 177 A POMAIRE ,MELIPILLA - XIII REGI&amp;Oacute</t>
+  </si>
+  <si>
+    <t>2024-05-08 13:00:00</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>ORELLANA</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>1/3/2001</t>
+  </si>
+  <si>
+    <t>KATTY QUIROGA 773 - CHACRA MARIN</t>
+  </si>
+  <si>
+    <t>MARGARITA</t>
+  </si>
+  <si>
+    <t>BLANCO</t>
+  </si>
+  <si>
+    <t>LEYTON</t>
+  </si>
+  <si>
+    <t>6/17/1931</t>
+  </si>
+  <si>
+    <t>CALLE VICHUQUEN 1863 POBL LOS LAGOS 1</t>
+  </si>
+  <si>
+    <t>2024-05-08 21:00:00</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>9/25/1932</t>
+  </si>
+  <si>
+    <t>TU MALIGNO DEL RIÑON</t>
+  </si>
+  <si>
+    <t>FUNDACION LAS ROSAS</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>CACERES</t>
+  </si>
+  <si>
+    <t>4/23/1935</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>SECUELAS POST NEUMONIA</t>
+  </si>
+  <si>
+    <t>MARTA</t>
+  </si>
+  <si>
+    <t>SAEZ</t>
+  </si>
+  <si>
+    <t>10/20/1940</t>
+  </si>
+  <si>
+    <t>FX DE LA BOVEDA DEL CRANEO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>10/25/1941</t>
+  </si>
+  <si>
+    <t>OHIGGINS 978</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ARAVENA</t>
+  </si>
+  <si>
+    <t>1/30/1941</t>
+  </si>
+  <si>
+    <t>CLAUDINA</t>
+  </si>
+  <si>
+    <t>QUIJANO</t>
+  </si>
+  <si>
+    <t>8/15/1941</t>
+  </si>
+  <si>
+    <t>2024-01-23</t>
+  </si>
+  <si>
+    <t>ACV</t>
+  </si>
+  <si>
+    <t>PUERTAS COLORADAS 18 PUANGUE</t>
+  </si>
+  <si>
+    <t>HORTENCIA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>JARA</t>
+  </si>
+  <si>
+    <t>12/28/1945</t>
+  </si>
+  <si>
+    <t>2024-01-25</t>
+  </si>
+  <si>
+    <t>ENFERMEDAD DE PARKINSON</t>
+  </si>
+  <si>
+    <t>LOICA CENTRO , SAN PEDRO</t>
+  </si>
+  <si>
+    <t>JUANA</t>
+  </si>
+  <si>
+    <t>6/26/1944</t>
+  </si>
+  <si>
+    <t>2024-01-26</t>
+  </si>
+  <si>
+    <t>BOCIO MULTINODULAR NO TOXICO</t>
+  </si>
+  <si>
+    <t>MANUEL AGUERO 1470 JUAN FCO GONZALEZ</t>
+  </si>
+  <si>
+    <t>ALARCON</t>
+  </si>
+  <si>
+    <t>9/14/1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMENCIA </t>
+  </si>
+  <si>
+    <t>PARCELA 36 CHOLQUI</t>
+  </si>
+  <si>
+    <t>FLORCITA</t>
+  </si>
+  <si>
+    <t>CATALAN</t>
+  </si>
+  <si>
+    <t>4/14/1951</t>
+  </si>
+  <si>
+    <t>2024-01-30</t>
+  </si>
+  <si>
+    <t>HIPERTENSION ESENCIAL</t>
+  </si>
+  <si>
+    <t>NELSON</t>
+  </si>
+  <si>
+    <t>VERGARA</t>
+  </si>
+  <si>
+    <t>3/10/1956</t>
+  </si>
+  <si>
+    <t>SINDROME DEL MANGUITO ROTATORIO HOMBRO IZQ</t>
+  </si>
+  <si>
+    <t>P.LIZAMA 326 COLONIAL 2</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>3/19/1955</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>ENFERMEDAD CARDIOVASCULAR</t>
+  </si>
+  <si>
+    <t>WILLIAMS REBOLLEDO 478 CAMPO LINDO</t>
+  </si>
+  <si>
+    <t>2024-05-08 12:00:00</t>
+  </si>
+  <si>
+    <t>ALVARO</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>FRACTURA DE VERTEBRA POR FATIGA</t>
+  </si>
+  <si>
+    <t>CLERIA</t>
+  </si>
+  <si>
+    <t>MONTOYA</t>
+  </si>
+  <si>
+    <t>9/29/1954</t>
+  </si>
+  <si>
+    <t>HEMOPTISIS UNICO ESPISODIO 2022</t>
+  </si>
+  <si>
+    <t>CALLE MANUEL RODRIGUEZ 939 12 DE OCTUBRE, - -</t>
+  </si>
+  <si>
+    <t>2024-05-08 22:00:00</t>
+  </si>
+  <si>
+    <t>9/6/1953</t>
+  </si>
+  <si>
+    <t>LOS GUINDOS 01312 POBLACION RINCONADA</t>
+  </si>
+  <si>
+    <t>NANCY</t>
+  </si>
+  <si>
+    <t>VILCHES</t>
+  </si>
+  <si>
+    <t>4/13/1956</t>
+  </si>
+  <si>
+    <t>ANEMIAS POR DEFICIENCIA DE HIERRO</t>
+  </si>
+  <si>
+    <t>HERMANAS MARAMBIO DEMETRIO BRAVO DP.203 BLOCK</t>
+  </si>
+  <si>
+    <t>DERRME PLEURAL BILATERAL</t>
+  </si>
+  <si>
+    <t>ROSA</t>
+  </si>
+  <si>
+    <t>SEPULVEDA</t>
+  </si>
+  <si>
+    <t>MAULEN</t>
+  </si>
+  <si>
+    <t>6/12/1950</t>
+  </si>
+  <si>
+    <t>OTROS TRASTORNOS DEL NERVIO OPTICO</t>
+  </si>
+  <si>
+    <t>EDUARDO VELASQUEZ MANDINGA</t>
+  </si>
+  <si>
+    <t>RETAMALES</t>
+  </si>
+  <si>
+    <t>11/10/1956</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>HIPERPLASIA</t>
+  </si>
+  <si>
+    <t>PABLO NERUDA 0402 H</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>12/30/1956</t>
+  </si>
+  <si>
+    <t>MIGRAÑA SIN AURA</t>
+  </si>
+  <si>
+    <t>P0OB STA LAURA</t>
+  </si>
+  <si>
+    <t>ABELARDO</t>
+  </si>
+  <si>
+    <t>OLGUIN</t>
+  </si>
+  <si>
+    <t>URBANO</t>
+  </si>
+  <si>
+    <t>10/4/1957</t>
+  </si>
+  <si>
+    <t>CALCULO DEL RINO</t>
+  </si>
+  <si>
+    <t>CAMINO CHIMHUE LOTE 4</t>
+  </si>
+  <si>
+    <t>OLIVIA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>5/18/1955</t>
+  </si>
+  <si>
+    <t>CUERPO EXTRAÑO CODO IZQ</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>CUETO</t>
+  </si>
+  <si>
+    <t>12/20/1959</t>
+  </si>
+  <si>
+    <t>Av. Ancelmo Alarcon paradero 4 1/2 callejon lo espejo 428 BOLLENAR</t>
+  </si>
+  <si>
+    <t>2024-05-08 01:00:00</t>
+  </si>
+  <si>
+    <t>SARA</t>
+  </si>
+  <si>
+    <t>5/28/1965</t>
+  </si>
+  <si>
+    <t>ANEMIAS POR DEFICIENCIA</t>
+  </si>
+  <si>
+    <t>EL BAJO PARCELA 4</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>9/28/1959</t>
+  </si>
+  <si>
+    <t>BECERRA</t>
+  </si>
+  <si>
+    <t>10/4/1962</t>
+  </si>
+  <si>
+    <t>EL BOSQUE S/N</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>PANCHILLA</t>
+  </si>
+  <si>
+    <t>TOLOZA</t>
+  </si>
+  <si>
+    <t>12/30/1963</t>
+  </si>
+  <si>
+    <t>EPILEPSIA</t>
+  </si>
+  <si>
+    <t>PJE AMATISTA 44 STA ROSA DE ESMERALDA</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>6/9/1962</t>
+  </si>
+  <si>
+    <t>VALLE DE MELIPILLA VOLCAN CALBUCO BLOCK 202 DPTO</t>
   </si>
 </sst>
 </file>
@@ -519,7 +1377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,16 +1515,16 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2">
-        <v>8090</v>
+        <v>8091</v>
       </c>
       <c r="B2">
-        <v>403001</v>
+        <v>405011</v>
       </c>
       <c r="C2">
-        <v>10185877</v>
+        <v>10208072</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -681,7 +1539,7 @@
         <v>45</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -691,33 +1549,27 @@
       <c r="M2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2"/>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>49</v>
-      </c>
-      <c r="R2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" t="s">
-        <v>51</v>
       </c>
       <c r="T2">
         <v>10</v>
       </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
       </c>
       <c r="X2">
         <v>13</v>
@@ -726,10 +1578,10 @@
         <v>13501</v>
       </c>
       <c r="Z2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="s">
         <v>54</v>
@@ -754,6 +1606,5594 @@
       <c r="AN2"/>
       <c r="AO2"/>
       <c r="AP2"/>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3">
+        <v>8096</v>
+      </c>
+      <c r="B3">
+        <v>403018</v>
+      </c>
+      <c r="C3">
+        <v>10275140</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3">
+        <v>13</v>
+      </c>
+      <c r="Y3">
+        <v>13501</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3">
+        <v>110150</v>
+      </c>
+      <c r="AD3">
+        <v>110150</v>
+      </c>
+      <c r="AE3">
+        <v>110150</v>
+      </c>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4">
+        <v>8123</v>
+      </c>
+      <c r="B4">
+        <v>403001</v>
+      </c>
+      <c r="C4">
+        <v>10904737</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4">
+        <v>13</v>
+      </c>
+      <c r="Y4">
+        <v>13501</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4">
+        <v>110150</v>
+      </c>
+      <c r="AD4">
+        <v>110150</v>
+      </c>
+      <c r="AE4">
+        <v>110150</v>
+      </c>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5">
+        <v>8125</v>
+      </c>
+      <c r="B5">
+        <v>403016</v>
+      </c>
+      <c r="C5">
+        <v>11048229</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5">
+        <v>13</v>
+      </c>
+      <c r="Y5">
+        <v>13501</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC5">
+        <v>110150</v>
+      </c>
+      <c r="AD5">
+        <v>110150</v>
+      </c>
+      <c r="AE5">
+        <v>110150</v>
+      </c>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6">
+        <v>8129</v>
+      </c>
+      <c r="B6">
+        <v>405001</v>
+      </c>
+      <c r="C6">
+        <v>11061100</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6">
+        <v>13</v>
+      </c>
+      <c r="Y6">
+        <v>13501</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC6">
+        <v>110150</v>
+      </c>
+      <c r="AD6">
+        <v>110150</v>
+      </c>
+      <c r="AE6">
+        <v>110150</v>
+      </c>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7">
+        <v>8130</v>
+      </c>
+      <c r="B7">
+        <v>405006</v>
+      </c>
+      <c r="C7">
+        <v>11061100</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7">
+        <v>13</v>
+      </c>
+      <c r="Y7">
+        <v>13501</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC7">
+        <v>110150</v>
+      </c>
+      <c r="AD7">
+        <v>110150</v>
+      </c>
+      <c r="AE7">
+        <v>110150</v>
+      </c>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8">
+        <v>8134</v>
+      </c>
+      <c r="B8">
+        <v>405007</v>
+      </c>
+      <c r="C8">
+        <v>11183877</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8">
+        <v>13</v>
+      </c>
+      <c r="Y8">
+        <v>13501</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC8">
+        <v>110150</v>
+      </c>
+      <c r="AD8">
+        <v>110150</v>
+      </c>
+      <c r="AE8">
+        <v>110150</v>
+      </c>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9">
+        <v>8138</v>
+      </c>
+      <c r="B9">
+        <v>403001</v>
+      </c>
+      <c r="C9">
+        <v>11224678</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9">
+        <v>13</v>
+      </c>
+      <c r="Y9">
+        <v>13501</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC9">
+        <v>110150</v>
+      </c>
+      <c r="AD9">
+        <v>110150</v>
+      </c>
+      <c r="AE9">
+        <v>110150</v>
+      </c>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10">
+        <v>8161</v>
+      </c>
+      <c r="B10">
+        <v>403014</v>
+      </c>
+      <c r="C10">
+        <v>11608528</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10">
+        <v>13</v>
+      </c>
+      <c r="Y10">
+        <v>13501</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC10">
+        <v>110150</v>
+      </c>
+      <c r="AD10">
+        <v>110150</v>
+      </c>
+      <c r="AE10">
+        <v>110150</v>
+      </c>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11">
+        <v>8162</v>
+      </c>
+      <c r="B11">
+        <v>403014</v>
+      </c>
+      <c r="C11">
+        <v>11608643</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11">
+        <v>13</v>
+      </c>
+      <c r="Y11">
+        <v>13501</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC11">
+        <v>110150</v>
+      </c>
+      <c r="AD11">
+        <v>110150</v>
+      </c>
+      <c r="AE11">
+        <v>110150</v>
+      </c>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12">
+        <v>8177</v>
+      </c>
+      <c r="B12">
+        <v>405098</v>
+      </c>
+      <c r="C12">
+        <v>12146831</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S12" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12">
+        <v>13</v>
+      </c>
+      <c r="Y12">
+        <v>13501</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC12">
+        <v>110150</v>
+      </c>
+      <c r="AD12">
+        <v>110150</v>
+      </c>
+      <c r="AE12">
+        <v>110150</v>
+      </c>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13">
+        <v>8184</v>
+      </c>
+      <c r="B13">
+        <v>404016</v>
+      </c>
+      <c r="C13">
+        <v>12178710</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13" t="s">
+        <v>112</v>
+      </c>
+      <c r="R13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S13" t="s">
+        <v>113</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
+      <c r="U13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13">
+        <v>13</v>
+      </c>
+      <c r="Y13">
+        <v>13501</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC13">
+        <v>110150</v>
+      </c>
+      <c r="AD13">
+        <v>110150</v>
+      </c>
+      <c r="AE13">
+        <v>110150</v>
+      </c>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14">
+        <v>8197</v>
+      </c>
+      <c r="B14">
+        <v>403001</v>
+      </c>
+      <c r="C14">
+        <v>12604375</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>118</v>
+      </c>
+      <c r="R14" t="s">
+        <v>119</v>
+      </c>
+      <c r="S14" t="s">
+        <v>113</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="U14" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" t="s">
+        <v>52</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+      <c r="Y14">
+        <v>13501</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC14">
+        <v>110150</v>
+      </c>
+      <c r="AD14">
+        <v>110150</v>
+      </c>
+      <c r="AE14">
+        <v>110150</v>
+      </c>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15">
+        <v>8198</v>
+      </c>
+      <c r="B15">
+        <v>405005</v>
+      </c>
+      <c r="C15">
+        <v>12662511</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15" t="s">
+        <v>125</v>
+      </c>
+      <c r="S15" t="s">
+        <v>81</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15" t="s">
+        <v>50</v>
+      </c>
+      <c r="V15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X15">
+        <v>13</v>
+      </c>
+      <c r="Y15">
+        <v>13501</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC15">
+        <v>110150</v>
+      </c>
+      <c r="AD15">
+        <v>110150</v>
+      </c>
+      <c r="AE15">
+        <v>110150</v>
+      </c>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16">
+        <v>8205</v>
+      </c>
+      <c r="B16">
+        <v>404118</v>
+      </c>
+      <c r="C16">
+        <v>12799674</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16" t="s">
+        <v>129</v>
+      </c>
+      <c r="T16">
+        <v>10</v>
+      </c>
+      <c r="U16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" t="s">
+        <v>52</v>
+      </c>
+      <c r="X16">
+        <v>13</v>
+      </c>
+      <c r="Y16">
+        <v>13501</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC16">
+        <v>110150</v>
+      </c>
+      <c r="AD16">
+        <v>110150</v>
+      </c>
+      <c r="AE16">
+        <v>110150</v>
+      </c>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+    </row>
+    <row r="17" spans="1:42">
+      <c r="A17">
+        <v>8222</v>
+      </c>
+      <c r="B17">
+        <v>403007</v>
+      </c>
+      <c r="C17">
+        <v>13246799</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" t="s">
+        <v>134</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>135</v>
+      </c>
+      <c r="R17" t="s">
+        <v>136</v>
+      </c>
+      <c r="S17" t="s">
+        <v>137</v>
+      </c>
+      <c r="T17">
+        <v>10</v>
+      </c>
+      <c r="U17" t="s">
+        <v>50</v>
+      </c>
+      <c r="V17" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" t="s">
+        <v>52</v>
+      </c>
+      <c r="X17">
+        <v>13</v>
+      </c>
+      <c r="Y17">
+        <v>13501</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC17">
+        <v>110150</v>
+      </c>
+      <c r="AD17">
+        <v>110150</v>
+      </c>
+      <c r="AE17">
+        <v>110150</v>
+      </c>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18">
+        <v>8224</v>
+      </c>
+      <c r="B18">
+        <v>405098</v>
+      </c>
+      <c r="C18">
+        <v>13340128</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" t="s">
+        <v>142</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18" t="s">
+        <v>143</v>
+      </c>
+      <c r="S18" t="s">
+        <v>144</v>
+      </c>
+      <c r="T18">
+        <v>10</v>
+      </c>
+      <c r="U18" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" t="s">
+        <v>52</v>
+      </c>
+      <c r="X18">
+        <v>13</v>
+      </c>
+      <c r="Y18">
+        <v>13501</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC18">
+        <v>110150</v>
+      </c>
+      <c r="AD18">
+        <v>110150</v>
+      </c>
+      <c r="AE18">
+        <v>110150</v>
+      </c>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+    </row>
+    <row r="19" spans="1:42">
+      <c r="A19">
+        <v>8234</v>
+      </c>
+      <c r="B19">
+        <v>403007</v>
+      </c>
+      <c r="C19">
+        <v>13559356</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>135</v>
+      </c>
+      <c r="R19" t="s">
+        <v>149</v>
+      </c>
+      <c r="S19" t="s">
+        <v>106</v>
+      </c>
+      <c r="T19">
+        <v>10</v>
+      </c>
+      <c r="U19" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" t="s">
+        <v>51</v>
+      </c>
+      <c r="W19" t="s">
+        <v>52</v>
+      </c>
+      <c r="X19">
+        <v>13</v>
+      </c>
+      <c r="Y19">
+        <v>13501</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC19">
+        <v>110150</v>
+      </c>
+      <c r="AD19">
+        <v>110150</v>
+      </c>
+      <c r="AE19">
+        <v>110150</v>
+      </c>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+    </row>
+    <row r="20" spans="1:42">
+      <c r="A20">
+        <v>8237</v>
+      </c>
+      <c r="B20">
+        <v>405001</v>
+      </c>
+      <c r="C20">
+        <v>13679365</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s">
+        <v>153</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>154</v>
+      </c>
+      <c r="R20" t="s">
+        <v>63</v>
+      </c>
+      <c r="S20" t="s">
+        <v>69</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
+      </c>
+      <c r="U20" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" t="s">
+        <v>52</v>
+      </c>
+      <c r="X20">
+        <v>13</v>
+      </c>
+      <c r="Y20">
+        <v>13501</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC20">
+        <v>110150</v>
+      </c>
+      <c r="AD20">
+        <v>110150</v>
+      </c>
+      <c r="AE20">
+        <v>110150</v>
+      </c>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="A21">
+        <v>8274</v>
+      </c>
+      <c r="B21">
+        <v>404012</v>
+      </c>
+      <c r="C21">
+        <v>14312672</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21" t="s">
+        <v>111</v>
+      </c>
+      <c r="M21" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>157</v>
+      </c>
+      <c r="R21" t="s">
+        <v>158</v>
+      </c>
+      <c r="S21" t="s">
+        <v>137</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21" t="s">
+        <v>50</v>
+      </c>
+      <c r="V21" t="s">
+        <v>51</v>
+      </c>
+      <c r="W21" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21">
+        <v>13</v>
+      </c>
+      <c r="Y21">
+        <v>13501</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC21">
+        <v>110150</v>
+      </c>
+      <c r="AD21">
+        <v>110150</v>
+      </c>
+      <c r="AE21">
+        <v>110150</v>
+      </c>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22">
+        <v>8304</v>
+      </c>
+      <c r="B22">
+        <v>403001</v>
+      </c>
+      <c r="C22">
+        <v>15621960</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" t="s">
+        <v>163</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22" t="s">
+        <v>164</v>
+      </c>
+      <c r="R22" t="s">
+        <v>165</v>
+      </c>
+      <c r="S22" t="s">
+        <v>166</v>
+      </c>
+      <c r="T22">
+        <v>10</v>
+      </c>
+      <c r="U22" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22" t="s">
+        <v>52</v>
+      </c>
+      <c r="X22">
+        <v>13</v>
+      </c>
+      <c r="Y22">
+        <v>13501</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC22">
+        <v>110150</v>
+      </c>
+      <c r="AD22">
+        <v>110150</v>
+      </c>
+      <c r="AE22">
+        <v>110150</v>
+      </c>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23">
+        <v>8303</v>
+      </c>
+      <c r="B23">
+        <v>403014</v>
+      </c>
+      <c r="C23">
+        <v>15433540</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>171</v>
+      </c>
+      <c r="R23" t="s">
+        <v>172</v>
+      </c>
+      <c r="S23" t="s">
+        <v>173</v>
+      </c>
+      <c r="T23">
+        <v>10</v>
+      </c>
+      <c r="U23" t="s">
+        <v>50</v>
+      </c>
+      <c r="V23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" t="s">
+        <v>52</v>
+      </c>
+      <c r="X23">
+        <v>13</v>
+      </c>
+      <c r="Y23">
+        <v>13501</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC23">
+        <v>110150</v>
+      </c>
+      <c r="AD23">
+        <v>110150</v>
+      </c>
+      <c r="AE23">
+        <v>110150</v>
+      </c>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+    </row>
+    <row r="24" spans="1:42">
+      <c r="A24">
+        <v>8314</v>
+      </c>
+      <c r="B24">
+        <v>403014</v>
+      </c>
+      <c r="C24">
+        <v>15966140</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24" t="s">
+        <v>177</v>
+      </c>
+      <c r="R24" t="s">
+        <v>178</v>
+      </c>
+      <c r="S24" t="s">
+        <v>137</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+      <c r="U24" t="s">
+        <v>50</v>
+      </c>
+      <c r="V24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" t="s">
+        <v>52</v>
+      </c>
+      <c r="X24">
+        <v>13</v>
+      </c>
+      <c r="Y24">
+        <v>13501</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC24">
+        <v>110150</v>
+      </c>
+      <c r="AD24">
+        <v>110150</v>
+      </c>
+      <c r="AE24">
+        <v>110150</v>
+      </c>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+    </row>
+    <row r="25" spans="1:42">
+      <c r="A25">
+        <v>8320</v>
+      </c>
+      <c r="B25">
+        <v>403014</v>
+      </c>
+      <c r="C25">
+        <v>16198148</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" t="s">
+        <v>163</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>183</v>
+      </c>
+      <c r="R25" t="s">
+        <v>63</v>
+      </c>
+      <c r="S25" t="s">
+        <v>184</v>
+      </c>
+      <c r="T25">
+        <v>10</v>
+      </c>
+      <c r="U25" t="s">
+        <v>50</v>
+      </c>
+      <c r="V25" t="s">
+        <v>51</v>
+      </c>
+      <c r="W25" t="s">
+        <v>52</v>
+      </c>
+      <c r="X25">
+        <v>13</v>
+      </c>
+      <c r="Y25">
+        <v>13501</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC25">
+        <v>110150</v>
+      </c>
+      <c r="AD25">
+        <v>110150</v>
+      </c>
+      <c r="AE25">
+        <v>110150</v>
+      </c>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+    </row>
+    <row r="26" spans="1:42">
+      <c r="A26">
+        <v>8318</v>
+      </c>
+      <c r="B26">
+        <v>403017</v>
+      </c>
+      <c r="C26">
+        <v>16198148</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>186</v>
+      </c>
+      <c r="R26" t="s">
+        <v>63</v>
+      </c>
+      <c r="S26" t="s">
+        <v>173</v>
+      </c>
+      <c r="T26">
+        <v>10</v>
+      </c>
+      <c r="U26" t="s">
+        <v>50</v>
+      </c>
+      <c r="V26" t="s">
+        <v>51</v>
+      </c>
+      <c r="W26" t="s">
+        <v>52</v>
+      </c>
+      <c r="X26">
+        <v>13</v>
+      </c>
+      <c r="Y26">
+        <v>13501</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC26">
+        <v>110150</v>
+      </c>
+      <c r="AD26">
+        <v>110150</v>
+      </c>
+      <c r="AE26">
+        <v>110150</v>
+      </c>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+    </row>
+    <row r="27" spans="1:42">
+      <c r="A27">
+        <v>8347</v>
+      </c>
+      <c r="B27">
+        <v>405013</v>
+      </c>
+      <c r="C27">
+        <v>17683919</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>190</v>
+      </c>
+      <c r="R27" t="s">
+        <v>191</v>
+      </c>
+      <c r="S27" t="s">
+        <v>192</v>
+      </c>
+      <c r="T27">
+        <v>10</v>
+      </c>
+      <c r="U27" t="s">
+        <v>50</v>
+      </c>
+      <c r="V27" t="s">
+        <v>51</v>
+      </c>
+      <c r="W27" t="s">
+        <v>52</v>
+      </c>
+      <c r="X27">
+        <v>13</v>
+      </c>
+      <c r="Y27">
+        <v>13501</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC27">
+        <v>110150</v>
+      </c>
+      <c r="AD27">
+        <v>110150</v>
+      </c>
+      <c r="AE27">
+        <v>110150</v>
+      </c>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+    </row>
+    <row r="28" spans="1:42">
+      <c r="A28">
+        <v>8366</v>
+      </c>
+      <c r="B28">
+        <v>403021</v>
+      </c>
+      <c r="C28">
+        <v>18884333</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" t="s">
+        <v>134</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28" t="s">
+        <v>195</v>
+      </c>
+      <c r="R28"/>
+      <c r="S28" t="s">
+        <v>196</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="U28" t="s">
+        <v>50</v>
+      </c>
+      <c r="V28" t="s">
+        <v>51</v>
+      </c>
+      <c r="W28" t="s">
+        <v>52</v>
+      </c>
+      <c r="X28">
+        <v>13</v>
+      </c>
+      <c r="Y28">
+        <v>13501</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC28">
+        <v>110150</v>
+      </c>
+      <c r="AD28">
+        <v>110150</v>
+      </c>
+      <c r="AE28">
+        <v>110150</v>
+      </c>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="A29">
+        <v>8385</v>
+      </c>
+      <c r="B29">
+        <v>405013</v>
+      </c>
+      <c r="C29">
+        <v>20603910</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" t="s">
+        <v>185</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29" t="s">
+        <v>201</v>
+      </c>
+      <c r="S29" t="s">
+        <v>84</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="U29" t="s">
+        <v>50</v>
+      </c>
+      <c r="V29" t="s">
+        <v>51</v>
+      </c>
+      <c r="W29" t="s">
+        <v>52</v>
+      </c>
+      <c r="X29">
+        <v>13</v>
+      </c>
+      <c r="Y29">
+        <v>13501</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC29">
+        <v>110150</v>
+      </c>
+      <c r="AD29">
+        <v>110150</v>
+      </c>
+      <c r="AE29">
+        <v>110150</v>
+      </c>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+    </row>
+    <row r="30" spans="1:42">
+      <c r="A30">
+        <v>8386</v>
+      </c>
+      <c r="B30">
+        <v>403014</v>
+      </c>
+      <c r="C30">
+        <v>20603910</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" t="s">
+        <v>80</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30" t="s">
+        <v>201</v>
+      </c>
+      <c r="S30" t="s">
+        <v>202</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="U30" t="s">
+        <v>50</v>
+      </c>
+      <c r="V30" t="s">
+        <v>51</v>
+      </c>
+      <c r="W30" t="s">
+        <v>52</v>
+      </c>
+      <c r="X30">
+        <v>13</v>
+      </c>
+      <c r="Y30">
+        <v>13501</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC30">
+        <v>110150</v>
+      </c>
+      <c r="AD30">
+        <v>110150</v>
+      </c>
+      <c r="AE30">
+        <v>110150</v>
+      </c>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+    </row>
+    <row r="31" spans="1:42">
+      <c r="A31">
+        <v>8387</v>
+      </c>
+      <c r="B31">
+        <v>403013</v>
+      </c>
+      <c r="C31">
+        <v>20604172</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" t="s">
+        <v>80</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31" t="s">
+        <v>207</v>
+      </c>
+      <c r="S31" t="s">
+        <v>129</v>
+      </c>
+      <c r="T31">
+        <v>10</v>
+      </c>
+      <c r="U31" t="s">
+        <v>50</v>
+      </c>
+      <c r="V31" t="s">
+        <v>51</v>
+      </c>
+      <c r="W31" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31">
+        <v>13</v>
+      </c>
+      <c r="Y31">
+        <v>13501</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC31">
+        <v>110150</v>
+      </c>
+      <c r="AD31">
+        <v>110150</v>
+      </c>
+      <c r="AE31">
+        <v>110150</v>
+      </c>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+    </row>
+    <row r="32" spans="1:42">
+      <c r="A32">
+        <v>8429</v>
+      </c>
+      <c r="B32">
+        <v>405001</v>
+      </c>
+      <c r="C32">
+        <v>3186939</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" t="s">
+        <v>211</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" t="s">
+        <v>124</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32" t="s">
+        <v>212</v>
+      </c>
+      <c r="S32" t="s">
+        <v>213</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32" t="s">
+        <v>50</v>
+      </c>
+      <c r="V32" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32" t="s">
+        <v>52</v>
+      </c>
+      <c r="X32">
+        <v>13</v>
+      </c>
+      <c r="Y32">
+        <v>13501</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC32">
+        <v>110150</v>
+      </c>
+      <c r="AD32">
+        <v>110150</v>
+      </c>
+      <c r="AE32">
+        <v>110150</v>
+      </c>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+    </row>
+    <row r="33" spans="1:42">
+      <c r="A33">
+        <v>8431</v>
+      </c>
+      <c r="B33">
+        <v>403021</v>
+      </c>
+      <c r="C33">
+        <v>3318349</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>215</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" t="s">
+        <v>104</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33" t="s">
+        <v>216</v>
+      </c>
+      <c r="R33" t="s">
+        <v>217</v>
+      </c>
+      <c r="S33" t="s">
+        <v>196</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="U33" t="s">
+        <v>50</v>
+      </c>
+      <c r="V33" t="s">
+        <v>51</v>
+      </c>
+      <c r="W33" t="s">
+        <v>52</v>
+      </c>
+      <c r="X33">
+        <v>13</v>
+      </c>
+      <c r="Y33">
+        <v>13501</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC33">
+        <v>110150</v>
+      </c>
+      <c r="AD33">
+        <v>110150</v>
+      </c>
+      <c r="AE33">
+        <v>110150</v>
+      </c>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+    </row>
+    <row r="34" spans="1:42">
+      <c r="A34">
+        <v>8432</v>
+      </c>
+      <c r="B34">
+        <v>403013</v>
+      </c>
+      <c r="C34">
+        <v>3412995</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" t="s">
+        <v>219</v>
+      </c>
+      <c r="G34" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" t="s">
+        <v>221</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34" t="s">
+        <v>222</v>
+      </c>
+      <c r="R34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S34" t="s">
+        <v>69</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34" t="s">
+        <v>50</v>
+      </c>
+      <c r="V34" t="s">
+        <v>51</v>
+      </c>
+      <c r="W34" t="s">
+        <v>52</v>
+      </c>
+      <c r="X34">
+        <v>13</v>
+      </c>
+      <c r="Y34">
+        <v>13501</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC34">
+        <v>110150</v>
+      </c>
+      <c r="AD34">
+        <v>110150</v>
+      </c>
+      <c r="AE34">
+        <v>110150</v>
+      </c>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+    </row>
+    <row r="35" spans="1:42">
+      <c r="A35">
+        <v>8452</v>
+      </c>
+      <c r="B35">
+        <v>403001</v>
+      </c>
+      <c r="C35">
+        <v>4277756</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" t="s">
+        <v>225</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" t="s">
+        <v>134</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35" t="s">
+        <v>226</v>
+      </c>
+      <c r="R35" t="s">
+        <v>63</v>
+      </c>
+      <c r="S35" t="s">
+        <v>84</v>
+      </c>
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="U35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V35" t="s">
+        <v>51</v>
+      </c>
+      <c r="W35" t="s">
+        <v>52</v>
+      </c>
+      <c r="X35">
+        <v>13</v>
+      </c>
+      <c r="Y35">
+        <v>13501</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC35">
+        <v>110150</v>
+      </c>
+      <c r="AD35">
+        <v>110150</v>
+      </c>
+      <c r="AE35">
+        <v>110150</v>
+      </c>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+    </row>
+    <row r="36" spans="1:42">
+      <c r="A36">
+        <v>8457</v>
+      </c>
+      <c r="B36">
+        <v>403001</v>
+      </c>
+      <c r="C36">
+        <v>4332742</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" t="s">
+        <v>221</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36" t="s">
+        <v>62</v>
+      </c>
+      <c r="R36" t="s">
+        <v>229</v>
+      </c>
+      <c r="S36" t="s">
+        <v>196</v>
+      </c>
+      <c r="T36">
+        <v>10</v>
+      </c>
+      <c r="U36" t="s">
+        <v>50</v>
+      </c>
+      <c r="V36" t="s">
+        <v>51</v>
+      </c>
+      <c r="W36" t="s">
+        <v>52</v>
+      </c>
+      <c r="X36">
+        <v>13</v>
+      </c>
+      <c r="Y36">
+        <v>13501</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC36">
+        <v>110150</v>
+      </c>
+      <c r="AD36">
+        <v>110150</v>
+      </c>
+      <c r="AE36">
+        <v>110150</v>
+      </c>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+    </row>
+    <row r="37" spans="1:42">
+      <c r="A37">
+        <v>8461</v>
+      </c>
+      <c r="B37">
+        <v>405011</v>
+      </c>
+      <c r="C37">
+        <v>4363617</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" t="s">
+        <v>232</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" t="s">
+        <v>185</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37" t="s">
+        <v>63</v>
+      </c>
+      <c r="S37" t="s">
+        <v>69</v>
+      </c>
+      <c r="T37">
+        <v>10</v>
+      </c>
+      <c r="U37" t="s">
+        <v>50</v>
+      </c>
+      <c r="V37" t="s">
+        <v>51</v>
+      </c>
+      <c r="W37" t="s">
+        <v>52</v>
+      </c>
+      <c r="X37">
+        <v>13</v>
+      </c>
+      <c r="Y37">
+        <v>13501</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC37">
+        <v>110150</v>
+      </c>
+      <c r="AD37">
+        <v>110150</v>
+      </c>
+      <c r="AE37">
+        <v>110150</v>
+      </c>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+    </row>
+    <row r="38" spans="1:42">
+      <c r="A38">
+        <v>8476</v>
+      </c>
+      <c r="B38">
+        <v>403001</v>
+      </c>
+      <c r="C38">
+        <v>4628412</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" t="s">
+        <v>234</v>
+      </c>
+      <c r="H38" t="s">
+        <v>235</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" t="s">
+        <v>236</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38" t="s">
+        <v>237</v>
+      </c>
+      <c r="R38" t="s">
+        <v>238</v>
+      </c>
+      <c r="S38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T38">
+        <v>10</v>
+      </c>
+      <c r="U38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V38" t="s">
+        <v>51</v>
+      </c>
+      <c r="W38" t="s">
+        <v>52</v>
+      </c>
+      <c r="X38">
+        <v>13</v>
+      </c>
+      <c r="Y38">
+        <v>13501</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC38">
+        <v>110150</v>
+      </c>
+      <c r="AD38">
+        <v>110150</v>
+      </c>
+      <c r="AE38">
+        <v>110150</v>
+      </c>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+    </row>
+    <row r="39" spans="1:42">
+      <c r="A39">
+        <v>8499</v>
+      </c>
+      <c r="B39">
+        <v>403001</v>
+      </c>
+      <c r="C39">
+        <v>5014233</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" t="s">
+        <v>240</v>
+      </c>
+      <c r="G39" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39" t="s">
+        <v>242</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39" t="s">
+        <v>60</v>
+      </c>
+      <c r="M39" t="s">
+        <v>243</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39" t="s">
+        <v>244</v>
+      </c>
+      <c r="R39" t="s">
+        <v>245</v>
+      </c>
+      <c r="S39" t="s">
+        <v>76</v>
+      </c>
+      <c r="T39">
+        <v>10</v>
+      </c>
+      <c r="U39" t="s">
+        <v>50</v>
+      </c>
+      <c r="V39" t="s">
+        <v>51</v>
+      </c>
+      <c r="W39" t="s">
+        <v>52</v>
+      </c>
+      <c r="X39">
+        <v>13</v>
+      </c>
+      <c r="Y39">
+        <v>13501</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC39">
+        <v>110150</v>
+      </c>
+      <c r="AD39">
+        <v>110150</v>
+      </c>
+      <c r="AE39">
+        <v>110150</v>
+      </c>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+    </row>
+    <row r="40" spans="1:42">
+      <c r="A40">
+        <v>8512</v>
+      </c>
+      <c r="B40">
+        <v>403012</v>
+      </c>
+      <c r="C40">
+        <v>5367345</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>246</v>
+      </c>
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" t="s">
+        <v>247</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40" t="s">
+        <v>60</v>
+      </c>
+      <c r="M40" t="s">
+        <v>248</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40" t="s">
+        <v>249</v>
+      </c>
+      <c r="R40" t="s">
+        <v>250</v>
+      </c>
+      <c r="S40" t="s">
+        <v>184</v>
+      </c>
+      <c r="T40">
+        <v>10</v>
+      </c>
+      <c r="U40" t="s">
+        <v>50</v>
+      </c>
+      <c r="V40" t="s">
+        <v>51</v>
+      </c>
+      <c r="W40" t="s">
+        <v>52</v>
+      </c>
+      <c r="X40">
+        <v>13</v>
+      </c>
+      <c r="Y40">
+        <v>13501</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC40">
+        <v>110150</v>
+      </c>
+      <c r="AD40">
+        <v>110150</v>
+      </c>
+      <c r="AE40">
+        <v>110150</v>
+      </c>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40"/>
+    </row>
+    <row r="41" spans="1:42">
+      <c r="A41">
+        <v>8552</v>
+      </c>
+      <c r="B41">
+        <v>405001</v>
+      </c>
+      <c r="C41">
+        <v>6121625</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H41" t="s">
+        <v>252</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" t="s">
+        <v>221</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41" t="s">
+        <v>253</v>
+      </c>
+      <c r="R41" t="s">
+        <v>254</v>
+      </c>
+      <c r="S41" t="s">
+        <v>81</v>
+      </c>
+      <c r="T41">
+        <v>10</v>
+      </c>
+      <c r="U41" t="s">
+        <v>50</v>
+      </c>
+      <c r="V41" t="s">
+        <v>51</v>
+      </c>
+      <c r="W41" t="s">
+        <v>52</v>
+      </c>
+      <c r="X41">
+        <v>13</v>
+      </c>
+      <c r="Y41">
+        <v>13501</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC41">
+        <v>110150</v>
+      </c>
+      <c r="AD41">
+        <v>110150</v>
+      </c>
+      <c r="AE41">
+        <v>110150</v>
+      </c>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+    </row>
+    <row r="42" spans="1:42">
+      <c r="A42">
+        <v>8576</v>
+      </c>
+      <c r="B42">
+        <v>403013</v>
+      </c>
+      <c r="C42">
+        <v>6427003</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" t="s">
+        <v>199</v>
+      </c>
+      <c r="G42" t="s">
+        <v>256</v>
+      </c>
+      <c r="H42" t="s">
+        <v>257</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42" t="s">
+        <v>60</v>
+      </c>
+      <c r="M42" t="s">
+        <v>258</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42" t="s">
+        <v>259</v>
+      </c>
+      <c r="R42" t="s">
+        <v>63</v>
+      </c>
+      <c r="S42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T42">
+        <v>10</v>
+      </c>
+      <c r="U42" t="s">
+        <v>50</v>
+      </c>
+      <c r="V42" t="s">
+        <v>51</v>
+      </c>
+      <c r="W42" t="s">
+        <v>52</v>
+      </c>
+      <c r="X42">
+        <v>13</v>
+      </c>
+      <c r="Y42">
+        <v>13501</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC42">
+        <v>110150</v>
+      </c>
+      <c r="AD42">
+        <v>110150</v>
+      </c>
+      <c r="AE42">
+        <v>110150</v>
+      </c>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42"/>
+    </row>
+    <row r="43" spans="1:42">
+      <c r="A43">
+        <v>8631</v>
+      </c>
+      <c r="B43">
+        <v>404016</v>
+      </c>
+      <c r="C43">
+        <v>7194008</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H43" t="s">
+        <v>262</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" t="s">
+        <v>153</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43" t="s">
+        <v>263</v>
+      </c>
+      <c r="R43" t="s">
+        <v>264</v>
+      </c>
+      <c r="S43" t="s">
+        <v>166</v>
+      </c>
+      <c r="T43">
+        <v>10</v>
+      </c>
+      <c r="U43" t="s">
+        <v>50</v>
+      </c>
+      <c r="V43" t="s">
+        <v>51</v>
+      </c>
+      <c r="W43" t="s">
+        <v>52</v>
+      </c>
+      <c r="X43">
+        <v>13</v>
+      </c>
+      <c r="Y43">
+        <v>13501</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC43">
+        <v>110150</v>
+      </c>
+      <c r="AD43">
+        <v>110150</v>
+      </c>
+      <c r="AE43">
+        <v>110150</v>
+      </c>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+    </row>
+    <row r="44" spans="1:42">
+      <c r="A44">
+        <v>8633</v>
+      </c>
+      <c r="B44">
+        <v>405005</v>
+      </c>
+      <c r="C44">
+        <v>7203768</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" t="s">
+        <v>267</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" t="s">
+        <v>268</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44" t="s">
+        <v>269</v>
+      </c>
+      <c r="R44" t="s">
+        <v>270</v>
+      </c>
+      <c r="S44" t="s">
+        <v>84</v>
+      </c>
+      <c r="T44">
+        <v>10</v>
+      </c>
+      <c r="U44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V44" t="s">
+        <v>51</v>
+      </c>
+      <c r="W44" t="s">
+        <v>52</v>
+      </c>
+      <c r="X44">
+        <v>13</v>
+      </c>
+      <c r="Y44">
+        <v>13501</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC44">
+        <v>110150</v>
+      </c>
+      <c r="AD44">
+        <v>110150</v>
+      </c>
+      <c r="AE44">
+        <v>110150</v>
+      </c>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44"/>
+      <c r="AO44"/>
+      <c r="AP44"/>
+    </row>
+    <row r="45" spans="1:42">
+      <c r="A45">
+        <v>8634</v>
+      </c>
+      <c r="B45">
+        <v>403102</v>
+      </c>
+      <c r="C45">
+        <v>7203768</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" t="s">
+        <v>268</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45" t="s">
+        <v>269</v>
+      </c>
+      <c r="R45" t="s">
+        <v>270</v>
+      </c>
+      <c r="S45" t="s">
+        <v>271</v>
+      </c>
+      <c r="T45">
+        <v>10</v>
+      </c>
+      <c r="U45" t="s">
+        <v>50</v>
+      </c>
+      <c r="V45" t="s">
+        <v>51</v>
+      </c>
+      <c r="W45" t="s">
+        <v>52</v>
+      </c>
+      <c r="X45">
+        <v>13</v>
+      </c>
+      <c r="Y45">
+        <v>13501</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC45">
+        <v>110150</v>
+      </c>
+      <c r="AD45">
+        <v>110150</v>
+      </c>
+      <c r="AE45">
+        <v>110150</v>
+      </c>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+    </row>
+    <row r="46" spans="1:42">
+      <c r="A46">
+        <v>8642</v>
+      </c>
+      <c r="B46">
+        <v>405016</v>
+      </c>
+      <c r="C46">
+        <v>7367269</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" t="s">
+        <v>273</v>
+      </c>
+      <c r="G46" t="s">
+        <v>274</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46" t="s">
+        <v>275</v>
+      </c>
+      <c r="R46"/>
+      <c r="S46" t="s">
+        <v>184</v>
+      </c>
+      <c r="T46">
+        <v>10</v>
+      </c>
+      <c r="U46" t="s">
+        <v>50</v>
+      </c>
+      <c r="V46" t="s">
+        <v>51</v>
+      </c>
+      <c r="W46" t="s">
+        <v>52</v>
+      </c>
+      <c r="X46">
+        <v>13</v>
+      </c>
+      <c r="Y46">
+        <v>13501</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC46">
+        <v>110150</v>
+      </c>
+      <c r="AD46">
+        <v>110150</v>
+      </c>
+      <c r="AE46">
+        <v>110150</v>
+      </c>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46"/>
+    </row>
+    <row r="47" spans="1:42">
+      <c r="A47">
+        <v>8652</v>
+      </c>
+      <c r="B47">
+        <v>403013</v>
+      </c>
+      <c r="C47">
+        <v>7458682</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" t="s">
+        <v>278</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47" t="s">
+        <v>60</v>
+      </c>
+      <c r="M47" t="s">
+        <v>142</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47" t="s">
+        <v>279</v>
+      </c>
+      <c r="R47" t="s">
+        <v>280</v>
+      </c>
+      <c r="S47" t="s">
+        <v>281</v>
+      </c>
+      <c r="T47">
+        <v>10</v>
+      </c>
+      <c r="U47" t="s">
+        <v>50</v>
+      </c>
+      <c r="V47" t="s">
+        <v>51</v>
+      </c>
+      <c r="W47" t="s">
+        <v>52</v>
+      </c>
+      <c r="X47">
+        <v>13</v>
+      </c>
+      <c r="Y47">
+        <v>13501</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC47">
+        <v>110150</v>
+      </c>
+      <c r="AD47">
+        <v>110150</v>
+      </c>
+      <c r="AE47">
+        <v>110150</v>
+      </c>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+    </row>
+    <row r="48" spans="1:42">
+      <c r="A48">
+        <v>8661</v>
+      </c>
+      <c r="B48">
+        <v>405007</v>
+      </c>
+      <c r="C48">
+        <v>7614256</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" t="s">
+        <v>282</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48" t="s">
+        <v>46</v>
+      </c>
+      <c r="M48" t="s">
+        <v>124</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48" t="s">
+        <v>283</v>
+      </c>
+      <c r="S48" t="s">
+        <v>100</v>
+      </c>
+      <c r="T48">
+        <v>10</v>
+      </c>
+      <c r="U48" t="s">
+        <v>50</v>
+      </c>
+      <c r="V48" t="s">
+        <v>51</v>
+      </c>
+      <c r="W48" t="s">
+        <v>52</v>
+      </c>
+      <c r="X48">
+        <v>13</v>
+      </c>
+      <c r="Y48">
+        <v>13501</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC48">
+        <v>110150</v>
+      </c>
+      <c r="AD48">
+        <v>110150</v>
+      </c>
+      <c r="AE48">
+        <v>110150</v>
+      </c>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48"/>
+    </row>
+    <row r="49" spans="1:42">
+      <c r="A49">
+        <v>8668</v>
+      </c>
+      <c r="B49">
+        <v>403016</v>
+      </c>
+      <c r="C49">
+        <v>7727280</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>284</v>
+      </c>
+      <c r="F49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" t="s">
+        <v>285</v>
+      </c>
+      <c r="H49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49" t="s">
+        <v>60</v>
+      </c>
+      <c r="M49" t="s">
+        <v>185</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49" t="s">
+        <v>287</v>
+      </c>
+      <c r="R49" t="s">
+        <v>288</v>
+      </c>
+      <c r="S49" t="s">
+        <v>64</v>
+      </c>
+      <c r="T49">
+        <v>10</v>
+      </c>
+      <c r="U49" t="s">
+        <v>50</v>
+      </c>
+      <c r="V49" t="s">
+        <v>51</v>
+      </c>
+      <c r="W49" t="s">
+        <v>52</v>
+      </c>
+      <c r="X49">
+        <v>13</v>
+      </c>
+      <c r="Y49">
+        <v>13501</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC49">
+        <v>110150</v>
+      </c>
+      <c r="AD49">
+        <v>110150</v>
+      </c>
+      <c r="AE49">
+        <v>110150</v>
+      </c>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49"/>
+    </row>
+    <row r="50" spans="1:42">
+      <c r="A50">
+        <v>8669</v>
+      </c>
+      <c r="B50">
+        <v>403013</v>
+      </c>
+      <c r="C50">
+        <v>7727280</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" t="s">
+        <v>286</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50" t="s">
+        <v>60</v>
+      </c>
+      <c r="M50" t="s">
+        <v>221</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50" t="s">
+        <v>289</v>
+      </c>
+      <c r="R50" t="s">
+        <v>288</v>
+      </c>
+      <c r="S50" t="s">
+        <v>173</v>
+      </c>
+      <c r="T50">
+        <v>10</v>
+      </c>
+      <c r="U50" t="s">
+        <v>50</v>
+      </c>
+      <c r="V50" t="s">
+        <v>51</v>
+      </c>
+      <c r="W50" t="s">
+        <v>52</v>
+      </c>
+      <c r="X50">
+        <v>13</v>
+      </c>
+      <c r="Y50">
+        <v>13501</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC50">
+        <v>110150</v>
+      </c>
+      <c r="AD50">
+        <v>110150</v>
+      </c>
+      <c r="AE50">
+        <v>110150</v>
+      </c>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50"/>
+    </row>
+    <row r="51" spans="1:42">
+      <c r="A51">
+        <v>8674</v>
+      </c>
+      <c r="B51">
+        <v>403001</v>
+      </c>
+      <c r="C51">
+        <v>7854453</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>290</v>
+      </c>
+      <c r="F51" t="s">
+        <v>291</v>
+      </c>
+      <c r="G51" t="s">
+        <v>292</v>
+      </c>
+      <c r="H51" t="s">
+        <v>293</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" t="s">
+        <v>80</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51" t="s">
+        <v>294</v>
+      </c>
+      <c r="R51" t="s">
+        <v>295</v>
+      </c>
+      <c r="S51" t="s">
+        <v>144</v>
+      </c>
+      <c r="T51">
+        <v>10</v>
+      </c>
+      <c r="U51" t="s">
+        <v>50</v>
+      </c>
+      <c r="V51" t="s">
+        <v>51</v>
+      </c>
+      <c r="W51" t="s">
+        <v>52</v>
+      </c>
+      <c r="X51">
+        <v>13</v>
+      </c>
+      <c r="Y51">
+        <v>13501</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC51">
+        <v>110150</v>
+      </c>
+      <c r="AD51">
+        <v>110150</v>
+      </c>
+      <c r="AE51">
+        <v>110150</v>
+      </c>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51"/>
+    </row>
+    <row r="52" spans="1:42">
+      <c r="A52">
+        <v>8675</v>
+      </c>
+      <c r="B52">
+        <v>405011</v>
+      </c>
+      <c r="C52">
+        <v>7869696</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" t="s">
+        <v>296</v>
+      </c>
+      <c r="H52" t="s">
+        <v>297</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52" t="s">
+        <v>46</v>
+      </c>
+      <c r="M52" t="s">
+        <v>298</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52" t="s">
+        <v>299</v>
+      </c>
+      <c r="R52" t="s">
+        <v>300</v>
+      </c>
+      <c r="S52" t="s">
+        <v>76</v>
+      </c>
+      <c r="T52">
+        <v>10</v>
+      </c>
+      <c r="U52" t="s">
+        <v>50</v>
+      </c>
+      <c r="V52" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" t="s">
+        <v>52</v>
+      </c>
+      <c r="X52">
+        <v>13</v>
+      </c>
+      <c r="Y52">
+        <v>13501</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC52">
+        <v>110150</v>
+      </c>
+      <c r="AD52">
+        <v>110150</v>
+      </c>
+      <c r="AE52">
+        <v>110150</v>
+      </c>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52"/>
+    </row>
+    <row r="53" spans="1:42">
+      <c r="A53">
+        <v>8692</v>
+      </c>
+      <c r="B53">
+        <v>403001</v>
+      </c>
+      <c r="C53">
+        <v>8102537</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" t="s">
+        <v>301</v>
+      </c>
+      <c r="G53" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" t="s">
+        <v>303</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53" t="s">
+        <v>60</v>
+      </c>
+      <c r="M53" t="s">
+        <v>236</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53" t="s">
+        <v>304</v>
+      </c>
+      <c r="R53" t="s">
+        <v>305</v>
+      </c>
+      <c r="S53" t="s">
+        <v>213</v>
+      </c>
+      <c r="T53">
+        <v>10</v>
+      </c>
+      <c r="U53" t="s">
+        <v>50</v>
+      </c>
+      <c r="V53" t="s">
+        <v>51</v>
+      </c>
+      <c r="W53" t="s">
+        <v>52</v>
+      </c>
+      <c r="X53">
+        <v>13</v>
+      </c>
+      <c r="Y53">
+        <v>13501</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC53">
+        <v>110150</v>
+      </c>
+      <c r="AD53">
+        <v>110150</v>
+      </c>
+      <c r="AE53">
+        <v>110150</v>
+      </c>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53"/>
+      <c r="AO53"/>
+      <c r="AP53"/>
+    </row>
+    <row r="54" spans="1:42">
+      <c r="A54">
+        <v>8694</v>
+      </c>
+      <c r="B54">
+        <v>403014</v>
+      </c>
+      <c r="C54">
+        <v>8105523</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>306</v>
+      </c>
+      <c r="F54" t="s">
+        <v>307</v>
+      </c>
+      <c r="G54" t="s">
+        <v>308</v>
+      </c>
+      <c r="H54" t="s">
+        <v>309</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54" t="s">
+        <v>60</v>
+      </c>
+      <c r="M54" t="s">
+        <v>74</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54" t="s">
+        <v>310</v>
+      </c>
+      <c r="R54" t="s">
+        <v>311</v>
+      </c>
+      <c r="S54" t="s">
+        <v>76</v>
+      </c>
+      <c r="T54">
+        <v>10</v>
+      </c>
+      <c r="U54" t="s">
+        <v>50</v>
+      </c>
+      <c r="V54" t="s">
+        <v>51</v>
+      </c>
+      <c r="W54" t="s">
+        <v>52</v>
+      </c>
+      <c r="X54">
+        <v>13</v>
+      </c>
+      <c r="Y54">
+        <v>13501</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC54">
+        <v>110150</v>
+      </c>
+      <c r="AD54">
+        <v>110150</v>
+      </c>
+      <c r="AE54">
+        <v>110150</v>
+      </c>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54"/>
+    </row>
+    <row r="55" spans="1:42">
+      <c r="A55">
+        <v>8720</v>
+      </c>
+      <c r="B55">
+        <v>405026</v>
+      </c>
+      <c r="C55">
+        <v>8451937</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>312</v>
+      </c>
+      <c r="F55" t="s">
+        <v>313</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s">
+        <v>314</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55" t="s">
+        <v>46</v>
+      </c>
+      <c r="M55" t="s">
+        <v>92</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55" t="s">
+        <v>315</v>
+      </c>
+      <c r="R55" t="s">
+        <v>63</v>
+      </c>
+      <c r="S55" t="s">
+        <v>100</v>
+      </c>
+      <c r="T55">
+        <v>10</v>
+      </c>
+      <c r="U55" t="s">
+        <v>50</v>
+      </c>
+      <c r="V55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W55" t="s">
+        <v>52</v>
+      </c>
+      <c r="X55">
+        <v>13</v>
+      </c>
+      <c r="Y55">
+        <v>13501</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC55">
+        <v>110150</v>
+      </c>
+      <c r="AD55">
+        <v>110150</v>
+      </c>
+      <c r="AE55">
+        <v>110150</v>
+      </c>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55"/>
+    </row>
+    <row r="56" spans="1:42">
+      <c r="A56">
+        <v>8724</v>
+      </c>
+      <c r="B56">
+        <v>403001</v>
+      </c>
+      <c r="C56">
+        <v>8557180</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>316</v>
+      </c>
+      <c r="F56" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56" t="s">
+        <v>317</v>
+      </c>
+      <c r="H56" t="s">
+        <v>318</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56" t="s">
+        <v>60</v>
+      </c>
+      <c r="M56" t="s">
+        <v>92</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56" t="s">
+        <v>62</v>
+      </c>
+      <c r="R56" t="s">
+        <v>319</v>
+      </c>
+      <c r="S56" t="s">
+        <v>320</v>
+      </c>
+      <c r="T56">
+        <v>10</v>
+      </c>
+      <c r="U56" t="s">
+        <v>50</v>
+      </c>
+      <c r="V56" t="s">
+        <v>51</v>
+      </c>
+      <c r="W56" t="s">
+        <v>52</v>
+      </c>
+      <c r="X56">
+        <v>13</v>
+      </c>
+      <c r="Y56">
+        <v>13501</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC56">
+        <v>110150</v>
+      </c>
+      <c r="AD56">
+        <v>110150</v>
+      </c>
+      <c r="AE56">
+        <v>110150</v>
+      </c>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+      <c r="AM56"/>
+      <c r="AN56"/>
+      <c r="AO56"/>
+      <c r="AP56"/>
+    </row>
+    <row r="57" spans="1:42">
+      <c r="A57">
+        <v>8755</v>
+      </c>
+      <c r="B57">
+        <v>403014</v>
+      </c>
+      <c r="C57">
+        <v>8891027</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>321</v>
+      </c>
+      <c r="F57" t="s">
+        <v>231</v>
+      </c>
+      <c r="G57" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" t="s">
+        <v>322</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57" t="s">
+        <v>60</v>
+      </c>
+      <c r="M57" t="s">
+        <v>153</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57" t="s">
+        <v>323</v>
+      </c>
+      <c r="R57" t="s">
+        <v>324</v>
+      </c>
+      <c r="S57" t="s">
+        <v>64</v>
+      </c>
+      <c r="T57">
+        <v>10</v>
+      </c>
+      <c r="U57" t="s">
+        <v>50</v>
+      </c>
+      <c r="V57" t="s">
+        <v>51</v>
+      </c>
+      <c r="W57" t="s">
+        <v>52</v>
+      </c>
+      <c r="X57">
+        <v>13</v>
+      </c>
+      <c r="Y57">
+        <v>13501</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC57">
+        <v>110150</v>
+      </c>
+      <c r="AD57">
+        <v>110150</v>
+      </c>
+      <c r="AE57">
+        <v>110150</v>
+      </c>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+    </row>
+    <row r="58" spans="1:42">
+      <c r="A58">
+        <v>8756</v>
+      </c>
+      <c r="B58">
+        <v>403013</v>
+      </c>
+      <c r="C58">
+        <v>8906241</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>325</v>
+      </c>
+      <c r="F58" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" t="s">
+        <v>326</v>
+      </c>
+      <c r="H58" t="s">
+        <v>327</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58" t="s">
+        <v>60</v>
+      </c>
+      <c r="M58" t="s">
+        <v>153</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58" t="s">
+        <v>323</v>
+      </c>
+      <c r="R58" t="s">
+        <v>63</v>
+      </c>
+      <c r="S58" t="s">
+        <v>281</v>
+      </c>
+      <c r="T58">
+        <v>10</v>
+      </c>
+      <c r="U58" t="s">
+        <v>50</v>
+      </c>
+      <c r="V58" t="s">
+        <v>51</v>
+      </c>
+      <c r="W58" t="s">
+        <v>52</v>
+      </c>
+      <c r="X58">
+        <v>13</v>
+      </c>
+      <c r="Y58">
+        <v>13501</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC58">
+        <v>110150</v>
+      </c>
+      <c r="AD58">
+        <v>110150</v>
+      </c>
+      <c r="AE58">
+        <v>110150</v>
+      </c>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58"/>
+      <c r="AO58"/>
+      <c r="AP58"/>
+    </row>
+    <row r="59" spans="1:42">
+      <c r="A59">
+        <v>8770</v>
+      </c>
+      <c r="B59">
+        <v>405001</v>
+      </c>
+      <c r="C59">
+        <v>9221462</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" t="s">
+        <v>328</v>
+      </c>
+      <c r="H59" t="s">
+        <v>329</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59" t="s">
+        <v>46</v>
+      </c>
+      <c r="M59" t="s">
+        <v>163</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59" t="s">
+        <v>62</v>
+      </c>
+      <c r="R59" t="s">
+        <v>330</v>
+      </c>
+      <c r="S59" t="s">
+        <v>196</v>
+      </c>
+      <c r="T59">
+        <v>10</v>
+      </c>
+      <c r="U59" t="s">
+        <v>50</v>
+      </c>
+      <c r="V59" t="s">
+        <v>51</v>
+      </c>
+      <c r="W59" t="s">
+        <v>52</v>
+      </c>
+      <c r="X59">
+        <v>13</v>
+      </c>
+      <c r="Y59">
+        <v>13501</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC59">
+        <v>110150</v>
+      </c>
+      <c r="AD59">
+        <v>110150</v>
+      </c>
+      <c r="AE59">
+        <v>110150</v>
+      </c>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59"/>
+    </row>
+    <row r="60" spans="1:42">
+      <c r="A60">
+        <v>8777</v>
+      </c>
+      <c r="B60">
+        <v>405001</v>
+      </c>
+      <c r="C60">
+        <v>9532288</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>331</v>
+      </c>
+      <c r="F60" t="s">
+        <v>332</v>
+      </c>
+      <c r="G60" t="s">
+        <v>333</v>
+      </c>
+      <c r="H60" t="s">
+        <v>334</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60" t="s">
+        <v>46</v>
+      </c>
+      <c r="M60" t="s">
+        <v>221</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60" t="s">
+        <v>335</v>
+      </c>
+      <c r="R60" t="s">
+        <v>336</v>
+      </c>
+      <c r="S60" t="s">
+        <v>64</v>
+      </c>
+      <c r="T60">
+        <v>10</v>
+      </c>
+      <c r="U60" t="s">
+        <v>50</v>
+      </c>
+      <c r="V60" t="s">
+        <v>51</v>
+      </c>
+      <c r="W60" t="s">
+        <v>52</v>
+      </c>
+      <c r="X60">
+        <v>13</v>
+      </c>
+      <c r="Y60">
+        <v>13501</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC60">
+        <v>110150</v>
+      </c>
+      <c r="AD60">
+        <v>110150</v>
+      </c>
+      <c r="AE60">
+        <v>110150</v>
+      </c>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60"/>
+      <c r="AO60"/>
+      <c r="AP60"/>
+    </row>
+    <row r="61" spans="1:42">
+      <c r="A61">
+        <v>8817</v>
+      </c>
+      <c r="B61">
+        <v>405011</v>
+      </c>
+      <c r="C61">
+        <v>9980822</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>337</v>
+      </c>
+      <c r="F61" t="s">
+        <v>302</v>
+      </c>
+      <c r="G61" t="s">
+        <v>338</v>
+      </c>
+      <c r="H61" t="s">
+        <v>339</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M61" t="s">
+        <v>221</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61" t="s">
+        <v>340</v>
+      </c>
+      <c r="S61" t="s">
+        <v>76</v>
+      </c>
+      <c r="T61">
+        <v>10</v>
+      </c>
+      <c r="U61" t="s">
+        <v>50</v>
+      </c>
+      <c r="V61" t="s">
+        <v>51</v>
+      </c>
+      <c r="W61" t="s">
+        <v>52</v>
+      </c>
+      <c r="X61">
+        <v>13</v>
+      </c>
+      <c r="Y61">
+        <v>13501</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC61">
+        <v>110150</v>
+      </c>
+      <c r="AD61">
+        <v>110150</v>
+      </c>
+      <c r="AE61">
+        <v>110150</v>
+      </c>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61"/>
+      <c r="AN61"/>
+      <c r="AO61"/>
+      <c r="AP61"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/exportacion.xlsx
+++ b/exportacion.xlsx
@@ -15,159 +15,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+  <si>
+    <t>SERV_SALUD</t>
+  </si>
+  <si>
+    <t>PRESTA_MIN_SALIDA</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>PRIMER_APELLIDO</t>
+  </si>
+  <si>
+    <t>SEGUNDO_APELLIDO</t>
+  </si>
+  <si>
+    <t>FECHA_NAC</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>PLANO</t>
+  </si>
+  <si>
+    <t>EXTREMIDAD</t>
+  </si>
+  <si>
+    <t>PRESTA_EST</t>
+  </si>
+  <si>
+    <t>F_ENTRADA</t>
+  </si>
+  <si>
+    <t>F_SALIDA</t>
+  </si>
+  <si>
+    <t>C_SALIDA</t>
+  </si>
+  <si>
+    <t>SOSPECHA_DIAG</t>
+  </si>
+  <si>
+    <t>CONFIR_DIAG</t>
+  </si>
+  <si>
+    <t>NOM_CALLE</t>
+  </si>
+  <si>
+    <t>F_CITACION</t>
+  </si>
+  <si>
+    <t>PREVISION</t>
+  </si>
+  <si>
+    <t>TIPO_PREST</t>
+  </si>
+  <si>
+    <t>ESTAB_ORIG</t>
+  </si>
+  <si>
+    <t>ESTAB_DEST</t>
+  </si>
+  <si>
+    <t>E_OTOR_AT</t>
+  </si>
+  <si>
+    <t>PRAIS</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>COMUNA</t>
+  </si>
+  <si>
+    <t>CIUDAD</t>
+  </si>
+  <si>
+    <t>COND_RURALIDAD</t>
+  </si>
+  <si>
+    <t>VIA_DIRECCION</t>
+  </si>
+  <si>
+    <t>NUM_DIRECCION</t>
+  </si>
+  <si>
+    <t>RESTO_DIRECCION</t>
+  </si>
+  <si>
+    <t>FONO_FIJO</t>
+  </si>
+  <si>
+    <t>FONO_MOVIL</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>RUN_PROF_SOL</t>
+  </si>
+  <si>
+    <t>DV_PROF_SOL</t>
+  </si>
+  <si>
+    <t>RUN_PROF_RESOL</t>
+  </si>
+  <si>
+    <t>DV_PROF_RESOL</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>SIGETE_ID</t>
+  </si>
   <si>
     <t>ID_LOCAL</t>
   </si>
   <si>
-    <t>PRESTA_MIN_SALIDA</t>
-  </si>
-  <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>DV</t>
-  </si>
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>PRIMER_APELLIDO</t>
-  </si>
-  <si>
-    <t>SEGUNDO_APELLIDO</t>
-  </si>
-  <si>
-    <t>FECHA_NAC</t>
-  </si>
-  <si>
-    <t>SEXO</t>
-  </si>
-  <si>
-    <t>PLANO</t>
-  </si>
-  <si>
-    <t>EXTREMIDAD</t>
-  </si>
-  <si>
-    <t>PRESTA_EST</t>
-  </si>
-  <si>
-    <t>F_ENTRADA</t>
-  </si>
-  <si>
-    <t>F_SALIDA</t>
-  </si>
-  <si>
-    <t>C_SALIDA</t>
-  </si>
-  <si>
-    <t>SOSPECHA_DIAG</t>
-  </si>
-  <si>
-    <t>CONFIR_DIAG</t>
-  </si>
-  <si>
-    <t>NOM_CALLE</t>
-  </si>
-  <si>
-    <t>F_CITACION</t>
-  </si>
-  <si>
-    <t>PREVISION</t>
-  </si>
-  <si>
-    <t>TIPO_PREST</t>
-  </si>
-  <si>
-    <t>ESTAB_ORIG</t>
-  </si>
-  <si>
-    <t>ESTAB_DEST</t>
-  </si>
-  <si>
-    <t>E_OTOR_AT</t>
-  </si>
-  <si>
-    <t>PRAIS</t>
-  </si>
-  <si>
-    <t>REGION</t>
-  </si>
-  <si>
-    <t>COMUNA</t>
-  </si>
-  <si>
-    <t>CIUDAD</t>
-  </si>
-  <si>
-    <t>COND_RURALIDAD</t>
-  </si>
-  <si>
-    <t>VIA_DIRECCION</t>
-  </si>
-  <si>
-    <t>NUM_DIRECCION</t>
-  </si>
-  <si>
-    <t>RESTO_DIRECCION</t>
-  </si>
-  <si>
-    <t>FONO_FIJO</t>
-  </si>
-  <si>
-    <t>FONO_MOVIL</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>RUN_PROF_SOL</t>
-  </si>
-  <si>
-    <t>DV_PROF_SOL</t>
-  </si>
-  <si>
-    <t>RUN_PROF_RESOL</t>
-  </si>
-  <si>
-    <t>DV_PROF_RESOL</t>
-  </si>
-  <si>
-    <t>RESULTADO</t>
-  </si>
-  <si>
-    <t>SIGETE_ID</t>
-  </si>
-  <si>
-    <t>SERV_SALUD</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>CONEJEROS</t>
-  </si>
-  <si>
-    <t>MALDONADO</t>
-  </si>
-  <si>
-    <t>2/27/1953</t>
-  </si>
-  <si>
-    <t>Resonancia magnetica</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>INCIDENTALOMA SUPRARRENAL EN ESTUDIO</t>
-  </si>
-  <si>
-    <t>NICOLAS MARIN 394 VILLA BERNARDO LEYTHON</t>
-  </si>
-  <si>
-    <t>2024-05-22 17:00:00</t>
+    <t>5772203-7</t>
+  </si>
+  <si>
+    <t>carlos</t>
+  </si>
+  <si>
+    <t>alvarez</t>
+  </si>
+  <si>
+    <t>gonzalez</t>
+  </si>
+  <si>
+    <t>11/13/1946</t>
+  </si>
+  <si>
+    <t>jose perotti 862 los jazmines</t>
+  </si>
+  <si>
+    <t>Imageneologica</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Tomografía Computarizada de cráneo encefálica</t>
+  </si>
+  <si>
+    <t>EPILEPSIA</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2024-05-23 10:00:00</t>
+  </si>
+  <si>
+    <t>Ingresado</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2024-05-23 00:00:00</t>
+  </si>
+  <si>
+    <t>Sin Especialidad</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>y apellido no especificado</t>
   </si>
   <si>
     <t>01</t>
@@ -185,22 +215,34 @@
     <t>04</t>
   </si>
   <si>
-    <t>PATRICIO</t>
-  </si>
-  <si>
-    <t>ALLENDES</t>
-  </si>
-  <si>
-    <t>12/21/1954</t>
-  </si>
-  <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>LO ALVARADO S/NÃ‚Â°</t>
-  </si>
-  <si>
-    <t>2024-05-22 06:00:00</t>
+    <t>9588940-9</t>
+  </si>
+  <si>
+    <t>GLADYS</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>7/25/1963</t>
+  </si>
+  <si>
+    <t>Agua Santa . Parcela # 75 . ..B-1. Culipran</t>
+  </si>
+  <si>
+    <t>Ecografía</t>
+  </si>
+  <si>
+    <t>Ecografía Partes Blandas o Musculoesquelética (cada zona anatómica)</t>
+  </si>
+  <si>
+    <t>PIE DER</t>
+  </si>
+  <si>
+    <t>2024-05-23 15:00:00</t>
   </si>
 </sst>
 </file>
@@ -540,7 +582,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:BP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +590,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:68">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,195 +718,315 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:68">
       <c r="A2">
-        <v>14092</v>
-      </c>
-      <c r="B2">
-        <v>405012</v>
-      </c>
-      <c r="C2">
-        <v>6635841</v>
+        <v>83460</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>53800772</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2"/>
       <c r="K2"/>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2" t="s">
+      <c r="L2">
+        <v>28978</v>
+      </c>
+      <c r="M2">
+        <v>403001</v>
+      </c>
+      <c r="N2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" t="s">
+      <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" t="s">
+      <c r="P2" t="s">
         <v>50</v>
       </c>
-      <c r="T2">
-        <v>10</v>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2" t="s">
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" t="s">
         <v>52</v>
       </c>
+      <c r="V2"/>
       <c r="W2" t="s">
         <v>53</v>
       </c>
-      <c r="X2">
-        <v>13</v>
-      </c>
-      <c r="Y2">
-        <v>13501</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
       </c>
-      <c r="AC2">
-        <v>110150</v>
-      </c>
-      <c r="AD2">
-        <v>110150</v>
-      </c>
-      <c r="AE2">
-        <v>110150</v>
-      </c>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2">
+        <v>27</v>
+      </c>
+      <c r="AI2">
+        <v>28943</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2">
+        <v>8</v>
+      </c>
       <c r="AL2"/>
       <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
+      <c r="AN2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP2">
+        <v>8</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS2"/>
+      <c r="AT2">
+        <v>10</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX2">
+        <v>13</v>
+      </c>
+      <c r="AY2">
+        <v>13501</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC2">
+        <v>110150</v>
+      </c>
+      <c r="BD2">
+        <v>110150</v>
+      </c>
+      <c r="BE2">
+        <v>110150</v>
+      </c>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:68">
       <c r="A3">
-        <v>14111</v>
-      </c>
-      <c r="B3">
-        <v>403008</v>
-      </c>
-      <c r="C3">
-        <v>6879274</v>
+        <v>84320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>977239937</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3"/>
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
       <c r="K3"/>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
+      <c r="L3">
+        <v>30087</v>
+      </c>
+      <c r="M3">
+        <v>404016</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" t="s">
+        <v>73</v>
+      </c>
       <c r="Q3"/>
-      <c r="R3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3">
-        <v>10</v>
-      </c>
-      <c r="U3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" t="s">
-        <v>52</v>
-      </c>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3"/>
       <c r="W3" t="s">
         <v>53</v>
       </c>
-      <c r="X3">
-        <v>13</v>
-      </c>
-      <c r="Y3">
-        <v>13501</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
         <v>55</v>
       </c>
-      <c r="AC3">
-        <v>110150</v>
-      </c>
-      <c r="AD3">
-        <v>110150</v>
-      </c>
-      <c r="AE3">
-        <v>110150</v>
-      </c>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH3">
+        <v>27</v>
+      </c>
+      <c r="AI3">
+        <v>30052</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3">
+        <v>8</v>
+      </c>
       <c r="AL3"/>
       <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
-      <c r="AP3"/>
+      <c r="AN3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP3">
+        <v>8</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS3"/>
+      <c r="AT3">
+        <v>10</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX3">
+        <v>13</v>
+      </c>
+      <c r="AY3">
+        <v>13501</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC3">
+        <v>110150</v>
+      </c>
+      <c r="BD3">
+        <v>110150</v>
+      </c>
+      <c r="BE3">
+        <v>110150</v>
+      </c>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/exportacion.xlsx
+++ b/exportacion.xlsx
@@ -20,30 +20,36 @@
     <t>SERV_SALUD</t>
   </si>
   <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>PRIMER_APELLIDO</t>
+  </si>
+  <si>
+    <t>SEGUNDO_APELLIDO</t>
+  </si>
+  <si>
+    <t>FECHA_NAC</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>PREVISION</t>
+  </si>
+  <si>
+    <t>TIPO_PREST</t>
+  </si>
+  <si>
     <t>PRESTA_MIN_SALIDA</t>
   </si>
   <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>DV</t>
-  </si>
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>PRIMER_APELLIDO</t>
-  </si>
-  <si>
-    <t>SEGUNDO_APELLIDO</t>
-  </si>
-  <si>
-    <t>FECHA_NAC</t>
-  </si>
-  <si>
-    <t>SEXO</t>
-  </si>
-  <si>
     <t>PLANO</t>
   </si>
   <si>
@@ -56,72 +62,66 @@
     <t>F_ENTRADA</t>
   </si>
   <si>
+    <t>ESTAB_ORIG</t>
+  </si>
+  <si>
+    <t>ESTAB_DEST</t>
+  </si>
+  <si>
     <t>F_SALIDA</t>
   </si>
   <si>
     <t>C_SALIDA</t>
   </si>
   <si>
+    <t>E_OTOR_AT</t>
+  </si>
+  <si>
+    <t>PRAIS</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>COMUNA</t>
+  </si>
+  <si>
     <t>SOSPECHA_DIAG</t>
   </si>
   <si>
     <t>CONFIR_DIAG</t>
   </si>
   <si>
+    <t>CIUDAD</t>
+  </si>
+  <si>
+    <t>COND_RURALIDAD</t>
+  </si>
+  <si>
+    <t>VIA_DIRECCION</t>
+  </si>
+  <si>
     <t>NOM_CALLE</t>
   </si>
   <si>
+    <t>NUM_DIRECCION</t>
+  </si>
+  <si>
+    <t>RESTO_DIRECCION</t>
+  </si>
+  <si>
+    <t>FONO_FIJO</t>
+  </si>
+  <si>
+    <t>FONO_MOVIL</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
     <t>F_CITACION</t>
   </si>
   <si>
-    <t>PREVISION</t>
-  </si>
-  <si>
-    <t>TIPO_PREST</t>
-  </si>
-  <si>
-    <t>ESTAB_ORIG</t>
-  </si>
-  <si>
-    <t>ESTAB_DEST</t>
-  </si>
-  <si>
-    <t>E_OTOR_AT</t>
-  </si>
-  <si>
-    <t>PRAIS</t>
-  </si>
-  <si>
-    <t>REGION</t>
-  </si>
-  <si>
-    <t>COMUNA</t>
-  </si>
-  <si>
-    <t>CIUDAD</t>
-  </si>
-  <si>
-    <t>COND_RURALIDAD</t>
-  </si>
-  <si>
-    <t>VIA_DIRECCION</t>
-  </si>
-  <si>
-    <t>NUM_DIRECCION</t>
-  </si>
-  <si>
-    <t>RESTO_DIRECCION</t>
-  </si>
-  <si>
-    <t>FONO_FIJO</t>
-  </si>
-  <si>
-    <t>FONO_MOVIL</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
     <t>RUN_PROF_SOL</t>
   </si>
   <si>
@@ -134,13 +134,13 @@
     <t>DV_PROF_RESOL</t>
   </si>
   <si>
+    <t>ID_LOCAL</t>
+  </si>
+  <si>
     <t>RESULTADO</t>
   </si>
   <si>
     <t>SIGETE_ID</t>
-  </si>
-  <si>
-    <t>ID_LOCAL</t>
   </si>
   <si>
     <t>5772203-7</t>
